--- a/prelims/data/egg_tube_data.xlsx
+++ b/prelims/data/egg_tube_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/prelims/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A79538-F215-1848-A73B-5DA5F90D5AC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0EF45-33B5-8549-BB2C-31723C55E7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="63">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -154,6 +154,66 @@
   </si>
   <si>
     <t>9.16.21</t>
+  </si>
+  <si>
+    <t>9.29.21</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>9.25.21</t>
+  </si>
+  <si>
+    <t>10.08.21</t>
+  </si>
+  <si>
+    <t>9.28.21</t>
+  </si>
+  <si>
+    <t>9.26.21</t>
+  </si>
+  <si>
+    <t>9.24.21</t>
+  </si>
+  <si>
+    <t>9.27.21</t>
+  </si>
+  <si>
+    <t>10.04.21</t>
+  </si>
+  <si>
+    <t>10.2-10.4</t>
+  </si>
+  <si>
+    <t>10.05.21</t>
+  </si>
+  <si>
+    <t>10.01.21</t>
+  </si>
+  <si>
+    <t>9.30.21</t>
+  </si>
+  <si>
+    <t>L/S</t>
+  </si>
+  <si>
+    <t>10.06.21</t>
+  </si>
+  <si>
+    <t>10.07.21</t>
+  </si>
+  <si>
+    <t>10.08.10</t>
+  </si>
+  <si>
+    <t>10.05.11</t>
+  </si>
+  <si>
+    <t>9.23.11</t>
   </si>
 </sst>
 </file>
@@ -594,8 +654,8 @@
   <dimension ref="A1:L1271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D730" sqref="D730"/>
+      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E705" sqref="E705"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -720,8 +780,12 @@
       <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>30</v>
       </c>
@@ -765,13 +829,19 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>30</v>
       </c>
@@ -822,8 +892,12 @@
       <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="6" t="s">
         <v>30</v>
       </c>
@@ -874,8 +948,12 @@
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J10" s="6" t="s">
         <v>30</v>
       </c>
@@ -901,8 +979,12 @@
       <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J11" s="6" t="s">
         <v>30</v>
       </c>
@@ -928,8 +1010,12 @@
       <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J12" s="6" t="s">
         <v>30</v>
       </c>
@@ -973,13 +1059,19 @@
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="6" t="s">
         <v>30</v>
       </c>
@@ -1028,12 +1120,18 @@
       <c r="E16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1052,13 +1150,19 @@
       <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J17" s="6" t="s">
         <v>30</v>
       </c>
@@ -1084,8 +1188,12 @@
       <c r="G18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J18" s="6" t="s">
         <v>30</v>
       </c>
@@ -1134,8 +1242,12 @@
       <c r="G20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J20" s="6" t="s">
         <v>30</v>
       </c>
@@ -1154,13 +1266,19 @@
       <c r="D21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1211,8 +1329,12 @@
       <c r="G23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J23" s="6" t="s">
         <v>30</v>
       </c>
@@ -1231,13 +1353,19 @@
       <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1256,13 +1384,19 @@
       <c r="D25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J25" s="6" t="s">
         <v>30</v>
       </c>
@@ -1315,8 +1449,12 @@
       <c r="G27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1342,8 +1480,12 @@
       <c r="G28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J28" s="6" t="s">
         <v>30</v>
       </c>
@@ -1387,13 +1529,19 @@
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1412,13 +1560,19 @@
       <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J31" s="6" t="s">
         <v>30</v>
       </c>
@@ -1464,13 +1618,19 @@
       <c r="D33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J33" s="10" t="s">
         <v>30</v>
       </c>
@@ -1541,13 +1701,19 @@
       <c r="D36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J36" s="11" t="s">
         <v>30</v>
       </c>
@@ -1566,13 +1732,21 @@
       <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J37" s="11" t="s">
         <v>30</v>
       </c>
@@ -1591,13 +1765,19 @@
       <c r="D38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J38" s="11" t="s">
         <v>30</v>
       </c>
@@ -1616,13 +1796,19 @@
       <c r="D39" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J39" s="11" t="s">
         <v>30</v>
       </c>
@@ -1641,13 +1827,19 @@
       <c r="D40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J40" s="11" t="s">
         <v>30</v>
       </c>
@@ -1673,8 +1865,12 @@
       <c r="G41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J41" s="11" t="s">
         <v>30</v>
       </c>
@@ -1693,13 +1889,19 @@
       <c r="D42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J42" s="11" t="s">
         <v>30</v>
       </c>
@@ -1725,8 +1927,12 @@
       <c r="G43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="H43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J43" s="11" t="s">
         <v>30</v>
       </c>
@@ -1822,13 +2028,19 @@
       <c r="D47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F47" s="6"/>
       <c r="G47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J47" s="6" t="s">
         <v>30</v>
       </c>
@@ -1847,13 +2059,19 @@
       <c r="D48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J48" s="6" t="s">
         <v>30</v>
       </c>
@@ -1872,13 +2090,19 @@
       <c r="D49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J49" s="6" t="s">
         <v>30</v>
       </c>
@@ -1898,14 +2122,18 @@
         <v>15</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J50" s="6" t="s">
         <v>30</v>
       </c>
@@ -1949,15 +2177,21 @@
       <c r="D52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F52" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J52" s="6" t="s">
         <v>30</v>
       </c>
@@ -2038,13 +2272,19 @@
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J55" s="6" t="s">
         <v>30</v>
       </c>
@@ -2088,13 +2328,19 @@
       <c r="D57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J57" s="6" t="s">
         <v>30</v>
       </c>
@@ -2113,13 +2359,19 @@
       <c r="D58" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J58" s="6" t="s">
         <v>30</v>
       </c>
@@ -2138,17 +2390,25 @@
       <c r="D59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F59" s="6"/>
       <c r="G59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J59" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="6"/>
+      <c r="K59" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
@@ -2213,13 +2473,19 @@
       <c r="D62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F62" s="6"/>
       <c r="G62" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J62" s="6" t="s">
         <v>30</v>
       </c>
@@ -2238,13 +2504,19 @@
       <c r="D63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F63" s="6"/>
       <c r="G63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J63" s="6" t="s">
         <v>30</v>
       </c>
@@ -2317,13 +2589,19 @@
       <c r="D66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F66" s="6"/>
       <c r="G66" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="H66" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J66" s="6" t="s">
         <v>30</v>
       </c>
@@ -2349,8 +2627,12 @@
       <c r="G67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="H67" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J67" s="6" t="s">
         <v>30</v>
       </c>
@@ -2503,8 +2785,12 @@
       <c r="G73" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="H73" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J73" s="8" t="s">
         <v>30</v>
       </c>
@@ -2530,8 +2816,12 @@
       <c r="G74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="H74" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J74" s="10" t="s">
         <v>30</v>
       </c>
@@ -2584,8 +2874,12 @@
       <c r="G76" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+      <c r="H76" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J76" s="6" t="s">
         <v>30</v>
       </c>
@@ -2611,8 +2905,12 @@
       <c r="G77" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J77" s="6" t="s">
         <v>30</v>
       </c>
@@ -2638,8 +2936,12 @@
       <c r="G78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+      <c r="H78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J78" s="6" t="s">
         <v>30</v>
       </c>
@@ -2658,13 +2960,19 @@
       <c r="D79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F79" s="6"/>
       <c r="G79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J79" s="6" t="s">
         <v>30</v>
       </c>
@@ -2683,13 +2991,19 @@
       <c r="D80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="6"/>
+      <c r="E80" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="F80" s="6"/>
       <c r="G80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J80" s="6" t="s">
         <v>30</v>
       </c>
@@ -2756,13 +3070,19 @@
       <c r="D83" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F83" s="6"/>
       <c r="G83" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
+      <c r="H83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J83" s="6" t="s">
         <v>30</v>
       </c>
@@ -2781,17 +3101,25 @@
       <c r="D84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F84" s="6"/>
       <c r="G84" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
+      <c r="H84" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J84" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K84" s="6"/>
+      <c r="K84" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6">
@@ -2840,8 +3168,12 @@
       <c r="G86" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
+      <c r="H86" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J86" s="6" t="s">
         <v>30</v>
       </c>
@@ -2860,13 +3192,19 @@
       <c r="D87" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F87" s="6"/>
       <c r="G87" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J87" s="6" t="s">
         <v>30</v>
       </c>
@@ -2885,13 +3223,17 @@
       <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="6"/>
+      <c r="E88" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F88" s="6"/>
       <c r="G88" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J88" s="6" t="s">
         <v>30</v>
       </c>
@@ -2910,13 +3252,19 @@
       <c r="D89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F89" s="6"/>
       <c r="G89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
+      <c r="H89" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J89" s="6" t="s">
         <v>30</v>
       </c>
@@ -2938,8 +3286,8 @@
       <c r="G90" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
       <c r="J90" s="6" t="s">
         <v>33</v>
       </c>
@@ -2961,8 +3309,8 @@
       <c r="G91" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
       <c r="J91" s="6" t="s">
         <v>33</v>
       </c>
@@ -2988,8 +3336,12 @@
       <c r="G92" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
+      <c r="H92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J92" s="6" t="s">
         <v>30</v>
       </c>
@@ -3031,13 +3383,19 @@
       <c r="D94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F94" s="6"/>
       <c r="G94" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="H94" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J94" s="6" t="s">
         <v>30</v>
       </c>
@@ -3344,13 +3702,19 @@
       <c r="D107" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="F107" s="9"/>
       <c r="G107" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="H107" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J107" s="10" t="s">
         <v>30</v>
       </c>
@@ -3369,13 +3733,19 @@
       <c r="D108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="6"/>
+      <c r="E108" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F108" s="6"/>
       <c r="G108" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
+      <c r="H108" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J108" s="11" t="s">
         <v>30</v>
       </c>
@@ -3421,13 +3791,21 @@
       <c r="D110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="E110" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G110" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
+      <c r="H110" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J110" s="11" t="s">
         <v>30</v>
       </c>
@@ -3446,13 +3824,19 @@
       <c r="D111" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E111" s="6"/>
+      <c r="E111" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F111" s="6"/>
       <c r="G111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
+      <c r="H111" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J111" s="11" t="s">
         <v>30</v>
       </c>
@@ -3471,13 +3855,19 @@
       <c r="D112" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E112" s="6"/>
+      <c r="E112" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F112" s="6"/>
       <c r="G112" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
+      <c r="H112" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J112" s="11" t="s">
         <v>30</v>
       </c>
@@ -3519,17 +3909,25 @@
       <c r="D114" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="6"/>
+      <c r="E114" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F114" s="6"/>
       <c r="G114" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
+      <c r="H114" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J114" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K114" s="6"/>
+      <c r="K114" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
@@ -3544,13 +3942,21 @@
       <c r="D115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G115" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
+      <c r="H115" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J115" s="11" t="s">
         <v>30</v>
       </c>
@@ -3569,13 +3975,19 @@
       <c r="D116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F116" s="6"/>
       <c r="G116" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
+      <c r="H116" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J116" s="11" t="s">
         <v>30</v>
       </c>
@@ -3594,13 +4006,19 @@
       <c r="D117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F117" s="6"/>
       <c r="G117" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
+      <c r="H117" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J117" s="11" t="s">
         <v>30</v>
       </c>
@@ -3642,13 +4060,19 @@
       <c r="D119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="6"/>
+      <c r="E119" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F119" s="6"/>
       <c r="G119" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
+      <c r="H119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J119" s="11" t="s">
         <v>30</v>
       </c>
@@ -3667,13 +4091,19 @@
       <c r="D120" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E120" s="6"/>
+      <c r="E120" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F120" s="6"/>
       <c r="G120" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
+      <c r="H120" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J120" s="11" t="s">
         <v>30</v>
       </c>
@@ -3692,13 +4122,19 @@
       <c r="D121" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F121" s="6"/>
       <c r="G121" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
+      <c r="H121" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J121" s="11" t="s">
         <v>30</v>
       </c>
@@ -3717,13 +4153,19 @@
       <c r="D122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="6"/>
+      <c r="E122" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F122" s="6"/>
       <c r="G122" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
+      <c r="H122" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J122" s="11" t="s">
         <v>30</v>
       </c>
@@ -3742,13 +4184,19 @@
       <c r="D123" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F123" s="6"/>
       <c r="G123" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="H123" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J123" s="11" t="s">
         <v>30</v>
       </c>
@@ -3767,13 +4215,19 @@
       <c r="D124" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E124" s="6"/>
+      <c r="E124" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F124" s="6"/>
       <c r="G124" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
+      <c r="H124" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J124" s="11" t="s">
         <v>30</v>
       </c>
@@ -3792,13 +4246,19 @@
       <c r="D125" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F125" s="6"/>
       <c r="G125" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
+      <c r="H125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J125" s="11" t="s">
         <v>30</v>
       </c>
@@ -3817,13 +4277,19 @@
       <c r="D126" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F126" s="6"/>
       <c r="G126" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
+      <c r="H126" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J126" s="11" t="s">
         <v>30</v>
       </c>
@@ -3869,17 +4335,25 @@
       <c r="D128" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F128" s="8"/>
       <c r="G128" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+      <c r="H128" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J128" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="K128" s="8"/>
+      <c r="K128" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="129" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
@@ -3922,8 +4396,12 @@
       <c r="G130" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
+      <c r="H130" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J130" s="11" t="s">
         <v>30</v>
       </c>
@@ -3949,8 +4427,12 @@
       <c r="G131" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
+      <c r="H131" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J131" s="11" t="s">
         <v>30</v>
       </c>
@@ -3976,8 +4458,12 @@
       <c r="G132" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
+      <c r="H132" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J132" s="11" t="s">
         <v>30</v>
       </c>
@@ -3996,13 +4482,19 @@
       <c r="D133" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F133" s="6"/>
       <c r="G133" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
+      <c r="H133" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J133" s="11" t="s">
         <v>30</v>
       </c>
@@ -4028,8 +4520,12 @@
       <c r="G134" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="H134" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J134" s="11" t="s">
         <v>30</v>
       </c>
@@ -4080,8 +4576,12 @@
       <c r="G136" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="H136" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J136" s="11" t="s">
         <v>30</v>
       </c>
@@ -4107,8 +4607,12 @@
       <c r="G137" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="H137" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I137" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J137" s="11" t="s">
         <v>30</v>
       </c>
@@ -4161,8 +4665,12 @@
       <c r="G139" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
+      <c r="H139" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I139" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J139" s="6" t="s">
         <v>30</v>
       </c>
@@ -4188,8 +4696,12 @@
       <c r="G140" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
+      <c r="H140" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J140" s="6" t="s">
         <v>30</v>
       </c>
@@ -4215,8 +4727,12 @@
       <c r="G141" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
+      <c r="H141" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I141" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J141" s="6" t="s">
         <v>30</v>
       </c>
@@ -4235,13 +4751,19 @@
       <c r="D142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F142" s="6"/>
       <c r="G142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
+      <c r="H142" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J142" s="6" t="s">
         <v>30</v>
       </c>
@@ -4260,13 +4782,19 @@
       <c r="D143" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F143" s="6"/>
       <c r="G143" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
+      <c r="H143" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I143" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J143" s="6" t="s">
         <v>30</v>
       </c>
@@ -4285,13 +4813,19 @@
       <c r="D144" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E144" s="8"/>
+      <c r="E144" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="F144" s="8"/>
       <c r="G144" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
+      <c r="H144" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J144" s="8" t="s">
         <v>30</v>
       </c>
@@ -4310,13 +4844,19 @@
       <c r="D145" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E145" s="9"/>
+      <c r="E145" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F145" s="9"/>
       <c r="G145" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="H145" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J145" s="10" t="s">
         <v>30</v>
       </c>
@@ -4342,8 +4882,12 @@
       <c r="G146" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
+      <c r="H146" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J146" s="11" t="s">
         <v>30</v>
       </c>
@@ -4369,8 +4913,12 @@
       <c r="G147" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
+      <c r="H147" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J147" s="11" t="s">
         <v>30</v>
       </c>
@@ -4396,8 +4944,12 @@
       <c r="G148" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
+      <c r="H148" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J148" s="11" t="s">
         <v>30</v>
       </c>
@@ -4423,8 +4975,12 @@
       <c r="G149" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="H149" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J149" s="11" t="s">
         <v>30</v>
       </c>
@@ -4450,8 +5006,12 @@
       <c r="G150" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
+      <c r="H150" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J150" s="11" t="s">
         <v>30</v>
       </c>
@@ -4470,13 +5030,19 @@
       <c r="D151" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E151" s="6"/>
+      <c r="E151" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F151" s="6"/>
       <c r="G151" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
+      <c r="H151" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I151" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J151" s="11" t="s">
         <v>30</v>
       </c>
@@ -4495,13 +5061,19 @@
       <c r="D152" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="6"/>
+      <c r="E152" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F152" s="6"/>
       <c r="G152" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
+      <c r="H152" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J152" s="11" t="s">
         <v>30</v>
       </c>
@@ -4766,13 +5338,19 @@
       <c r="D163" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F163" s="9"/>
       <c r="G163" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9"/>
+      <c r="H163" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J163" s="10" t="s">
         <v>30</v>
       </c>
@@ -4820,13 +5398,19 @@
       <c r="D165" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="6"/>
+      <c r="E165" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F165" s="6"/>
       <c r="G165" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H165" s="6"/>
-      <c r="I165" s="6"/>
+      <c r="H165" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J165" s="6" t="s">
         <v>30</v>
       </c>
@@ -4845,13 +5429,19 @@
       <c r="D166" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="6"/>
+      <c r="E166" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F166" s="6"/>
       <c r="G166" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="6"/>
-      <c r="I166" s="6"/>
+      <c r="H166" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J166" s="6" t="s">
         <v>30</v>
       </c>
@@ -4870,13 +5460,19 @@
       <c r="D167" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E167" s="6"/>
+      <c r="E167" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F167" s="6"/>
       <c r="G167" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H167" s="6"/>
-      <c r="I167" s="6"/>
+      <c r="H167" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J167" s="6" t="s">
         <v>30</v>
       </c>
@@ -4895,13 +5491,19 @@
       <c r="D168" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E168" s="6"/>
+      <c r="E168" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F168" s="6"/>
       <c r="G168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
+      <c r="H168" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J168" s="6" t="s">
         <v>30</v>
       </c>
@@ -4920,13 +5522,19 @@
       <c r="D169" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="6"/>
+      <c r="E169" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F169" s="6"/>
       <c r="G169" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
+      <c r="H169" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I169" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J169" s="6" t="s">
         <v>30</v>
       </c>
@@ -4945,13 +5553,19 @@
       <c r="D170" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E170" s="6"/>
+      <c r="E170" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
+      <c r="H170" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J170" s="6" t="s">
         <v>30</v>
       </c>
@@ -4995,13 +5609,19 @@
       <c r="D172" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E172" s="6"/>
+      <c r="E172" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F172" s="6"/>
       <c r="G172" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
+      <c r="H172" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J172" s="6" t="s">
         <v>30</v>
       </c>
@@ -5020,13 +5640,19 @@
       <c r="D173" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="6"/>
+      <c r="E173" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F173" s="6"/>
       <c r="G173" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
+      <c r="H173" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J173" s="6" t="s">
         <v>30</v>
       </c>
@@ -5045,13 +5671,19 @@
       <c r="D174" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E174" s="6"/>
+      <c r="E174" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F174" s="6"/>
       <c r="G174" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
+      <c r="H174" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J174" s="6" t="s">
         <v>30</v>
       </c>
@@ -5102,8 +5734,12 @@
       <c r="G176" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
+      <c r="H176" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J176" s="8" t="s">
         <v>30</v>
       </c>
@@ -5840,7 +6476,9 @@
       <c r="D207" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F207" s="9"/>
       <c r="G207" s="10" t="s">
         <v>17</v>
@@ -5865,7 +6503,9 @@
       <c r="D208" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E208" s="8"/>
+      <c r="E208" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F208" s="8"/>
       <c r="G208" s="8" t="s">
         <v>17</v>
@@ -5952,13 +6592,19 @@
       <c r="D211" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E211" s="6"/>
+      <c r="E211" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F211" s="6"/>
       <c r="G211" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H211" s="6"/>
-      <c r="I211" s="6"/>
+      <c r="H211" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J211" s="6" t="s">
         <v>30</v>
       </c>
@@ -6004,13 +6650,19 @@
       <c r="D213" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E213" s="6"/>
+      <c r="E213" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F213" s="6"/>
       <c r="G213" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H213" s="6"/>
-      <c r="I213" s="6"/>
+      <c r="H213" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J213" s="6" t="s">
         <v>30</v>
       </c>
@@ -6029,13 +6681,19 @@
       <c r="D214" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E214" s="6"/>
+      <c r="E214" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F214" s="6"/>
       <c r="G214" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H214" s="6"/>
-      <c r="I214" s="6"/>
+      <c r="H214" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J214" s="6" t="s">
         <v>30</v>
       </c>
@@ -6054,13 +6712,19 @@
       <c r="D215" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E215" s="6"/>
+      <c r="E215" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F215" s="6"/>
       <c r="G215" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H215" s="6"/>
-      <c r="I215" s="6"/>
+      <c r="H215" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J215" s="6" t="s">
         <v>30</v>
       </c>
@@ -6079,13 +6743,19 @@
       <c r="D216" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E216" s="6"/>
+      <c r="E216" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F216" s="6"/>
       <c r="G216" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H216" s="6"/>
-      <c r="I216" s="6"/>
+      <c r="H216" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J216" s="6" t="s">
         <v>30</v>
       </c>
@@ -6104,15 +6774,19 @@
       <c r="D217" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E217" s="6"/>
-      <c r="F217" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="E217" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" s="6"/>
       <c r="G217" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H217" s="6"/>
-      <c r="I217" s="6"/>
+      <c r="H217" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J217" s="6" t="s">
         <v>30</v>
       </c>
@@ -6131,13 +6805,19 @@
       <c r="D218" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E218" s="6"/>
+      <c r="E218" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F218" s="6"/>
       <c r="G218" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H218" s="6"/>
-      <c r="I218" s="6"/>
+      <c r="H218" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I218" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J218" s="6" t="s">
         <v>30</v>
       </c>
@@ -6156,13 +6836,19 @@
       <c r="D219" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E219" s="6"/>
+      <c r="E219" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F219" s="6"/>
       <c r="G219" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H219" s="6"/>
-      <c r="I219" s="6"/>
+      <c r="H219" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J219" s="6" t="s">
         <v>30</v>
       </c>
@@ -6181,13 +6867,19 @@
       <c r="D220" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E220" s="6"/>
+      <c r="E220" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F220" s="6"/>
       <c r="G220" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H220" s="6"/>
-      <c r="I220" s="6"/>
+      <c r="H220" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I220" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J220" s="6" t="s">
         <v>30</v>
       </c>
@@ -6254,13 +6946,19 @@
       <c r="D223" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E223" s="6"/>
+      <c r="E223" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F223" s="6"/>
       <c r="G223" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H223" s="6"/>
-      <c r="I223" s="6"/>
+      <c r="H223" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I223" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J223" s="6" t="s">
         <v>30</v>
       </c>
@@ -6279,13 +6977,19 @@
       <c r="D224" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E224" s="6"/>
+      <c r="E224" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F224" s="6"/>
       <c r="G224" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H224" s="6"/>
-      <c r="I224" s="6"/>
+      <c r="H224" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I224" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J224" s="6" t="s">
         <v>30</v>
       </c>
@@ -6437,13 +7141,19 @@
       <c r="D230" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E230" s="6"/>
+      <c r="E230" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F230" s="6"/>
       <c r="G230" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H230" s="6"/>
-      <c r="I230" s="6"/>
+      <c r="H230" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I230" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J230" s="6" t="s">
         <v>30</v>
       </c>
@@ -6489,13 +7199,19 @@
       <c r="D232" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E232" s="6"/>
+      <c r="E232" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F232" s="6"/>
       <c r="G232" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H232" s="6"/>
-      <c r="I232" s="6"/>
+      <c r="H232" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I232" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J232" s="6" t="s">
         <v>30</v>
       </c>
@@ -6514,13 +7230,19 @@
       <c r="D233" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E233" s="6"/>
+      <c r="E233" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F233" s="6"/>
       <c r="G233" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H233" s="6"/>
-      <c r="I233" s="6"/>
+      <c r="H233" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J233" s="6" t="s">
         <v>30</v>
       </c>
@@ -6589,13 +7311,19 @@
       <c r="D236" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E236" s="6"/>
+      <c r="E236" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F236" s="6"/>
       <c r="G236" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H236" s="6"/>
-      <c r="I236" s="6"/>
+      <c r="H236" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I236" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J236" s="6" t="s">
         <v>30</v>
       </c>
@@ -6641,13 +7369,19 @@
       <c r="D238" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E238" s="6"/>
+      <c r="E238" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F238" s="6"/>
       <c r="G238" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H238" s="6"/>
-      <c r="I238" s="6"/>
+      <c r="H238" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I238" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J238" s="6" t="s">
         <v>30</v>
       </c>
@@ -6666,13 +7400,19 @@
       <c r="D239" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E239" s="6"/>
+      <c r="E239" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F239" s="6"/>
       <c r="G239" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H239" s="6"/>
-      <c r="I239" s="6"/>
+      <c r="H239" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I239" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J239" s="6" t="s">
         <v>30</v>
       </c>
@@ -6691,13 +7431,19 @@
       <c r="D240" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E240" s="6"/>
+      <c r="E240" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F240" s="6"/>
       <c r="G240" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6"/>
+      <c r="H240" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I240" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J240" s="6" t="s">
         <v>30</v>
       </c>
@@ -6716,17 +7462,25 @@
       <c r="D241" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E241" s="6"/>
+      <c r="E241" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F241" s="6"/>
       <c r="G241" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6"/>
+      <c r="H241" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I241" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J241" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K241" s="6"/>
+      <c r="K241" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="242" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6">
@@ -6739,15 +7493,23 @@
         <v>16</v>
       </c>
       <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
+      <c r="E242" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F242" s="6"/>
       <c r="G242" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6"/>
+      <c r="H242" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I242" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
+      <c r="K242" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="243" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6">
@@ -6812,13 +7574,19 @@
       <c r="D245" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E245" s="6"/>
+      <c r="E245" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F245" s="6"/>
       <c r="G245" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H245" s="6"/>
-      <c r="I245" s="6"/>
+      <c r="H245" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I245" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J245" s="6" t="s">
         <v>30</v>
       </c>
@@ -6918,13 +7686,19 @@
       <c r="D249" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E249" s="6"/>
+      <c r="E249" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F249" s="6"/>
       <c r="G249" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H249" s="6"/>
-      <c r="I249" s="6"/>
+      <c r="H249" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J249" s="6" t="s">
         <v>30</v>
       </c>
@@ -7033,13 +7807,19 @@
       <c r="D254" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E254" s="6"/>
+      <c r="E254" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F254" s="6"/>
       <c r="G254" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H254" s="6"/>
-      <c r="I254" s="6"/>
+      <c r="H254" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J254" s="6" t="s">
         <v>30</v>
       </c>
@@ -7112,13 +7892,19 @@
       <c r="D257" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E257" s="6"/>
+      <c r="E257" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F257" s="6"/>
       <c r="G257" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
+      <c r="H257" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I257" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J257" s="6" t="s">
         <v>30</v>
       </c>
@@ -7191,13 +7977,19 @@
       <c r="D260" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E260" s="9"/>
+      <c r="E260" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="F260" s="9"/>
       <c r="G260" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H260" s="9"/>
-      <c r="I260" s="9"/>
+      <c r="H260" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I260" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J260" s="10" t="s">
         <v>30</v>
       </c>
@@ -7251,13 +8043,19 @@
       <c r="D262" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E262" s="6"/>
+      <c r="E262" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F262" s="6"/>
       <c r="G262" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H262" s="6"/>
-      <c r="I262" s="6"/>
+      <c r="H262" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I262" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J262" s="11" t="s">
         <v>30</v>
       </c>
@@ -7276,13 +8074,19 @@
       <c r="D263" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E263" s="6"/>
+      <c r="E263" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F263" s="6"/>
       <c r="G263" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H263" s="6"/>
-      <c r="I263" s="6"/>
+      <c r="H263" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I263" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J263" s="11" t="s">
         <v>30</v>
       </c>
@@ -7328,13 +8132,19 @@
       <c r="D265" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E265" s="6"/>
+      <c r="E265" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F265" s="6"/>
       <c r="G265" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H265" s="6"/>
-      <c r="I265" s="6"/>
+      <c r="H265" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I265" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J265" s="11" t="s">
         <v>30</v>
       </c>
@@ -7353,17 +8163,25 @@
       <c r="D266" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E266" s="6"/>
+      <c r="E266" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F266" s="6"/>
       <c r="G266" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H266" s="6"/>
-      <c r="I266" s="6"/>
+      <c r="H266" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I266" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J266" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K266" s="6"/>
+      <c r="K266" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="267" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
@@ -7405,13 +8223,19 @@
       <c r="D268" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E268" s="6"/>
+      <c r="E268" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F268" s="6"/>
       <c r="G268" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H268" s="6"/>
-      <c r="I268" s="6"/>
+      <c r="H268" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I268" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J268" s="6" t="s">
         <v>30</v>
       </c>
@@ -7457,13 +8281,16 @@
       <c r="D270" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H270" s="6"/>
-      <c r="I270" s="6"/>
+      <c r="H270" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I270" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J270" s="6" t="s">
         <v>30</v>
       </c>
@@ -7482,13 +8309,19 @@
       <c r="D271" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E271" s="6"/>
+      <c r="E271" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F271" s="6"/>
       <c r="G271" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H271" s="6"/>
-      <c r="I271" s="6"/>
+      <c r="H271" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I271" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J271" s="6" t="s">
         <v>30</v>
       </c>
@@ -7561,13 +8394,19 @@
       <c r="D274" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E274" s="6"/>
+      <c r="E274" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F274" s="6"/>
       <c r="G274" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
+      <c r="H274" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I274" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J274" s="6" t="s">
         <v>30</v>
       </c>
@@ -7586,13 +8425,19 @@
       <c r="D275" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E275" s="6"/>
+      <c r="E275" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F275" s="6"/>
       <c r="G275" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
+      <c r="H275" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I275" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J275" s="6" t="s">
         <v>30</v>
       </c>
@@ -7663,17 +8508,25 @@
       <c r="D278" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E278" s="6"/>
+      <c r="E278" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F278" s="6"/>
       <c r="G278" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
+      <c r="H278" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I278" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J278" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K278" s="6"/>
+      <c r="K278" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="279" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6">
@@ -7688,13 +8541,19 @@
       <c r="D279" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E279" s="6"/>
+      <c r="E279" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F279" s="6"/>
       <c r="G279" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
+      <c r="H279" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I279" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J279" s="6" t="s">
         <v>30</v>
       </c>
@@ -7713,13 +8572,19 @@
       <c r="D280" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E280" s="6"/>
+      <c r="E280" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F280" s="6"/>
       <c r="G280" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
+      <c r="H280" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I280" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J280" s="6" t="s">
         <v>30</v>
       </c>
@@ -7738,17 +8603,27 @@
       <c r="D281" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
+      <c r="E281" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G281" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
+      <c r="H281" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I281" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J281" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K281" s="6"/>
+      <c r="K281" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="282" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6">
@@ -7898,13 +8773,19 @@
       <c r="D287" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E287" s="6"/>
+      <c r="E287" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F287" s="6"/>
       <c r="G287" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H287" s="6"/>
-      <c r="I287" s="6"/>
+      <c r="H287" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I287" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J287" s="6" t="s">
         <v>30</v>
       </c>
@@ -7923,17 +8804,25 @@
       <c r="D288" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E288" s="6"/>
+      <c r="E288" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F288" s="6"/>
       <c r="G288" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H288" s="6"/>
-      <c r="I288" s="6"/>
+      <c r="H288" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I288" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J288" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K288" s="6"/>
+      <c r="K288" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="289" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
@@ -7948,13 +8837,19 @@
       <c r="D289" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E289" s="6"/>
+      <c r="E289" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F289" s="6"/>
       <c r="G289" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H289" s="6"/>
-      <c r="I289" s="6"/>
+      <c r="H289" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J289" s="6" t="s">
         <v>30</v>
       </c>
@@ -7973,17 +8868,25 @@
       <c r="D290" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E290" s="6"/>
+      <c r="E290" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F290" s="6"/>
       <c r="G290" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H290" s="6"/>
-      <c r="I290" s="6"/>
+      <c r="H290" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I290" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J290" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K290" s="6"/>
+      <c r="K290" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="291" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6">
@@ -7998,13 +8901,19 @@
       <c r="D291" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E291" s="6"/>
+      <c r="E291" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F291" s="6"/>
       <c r="G291" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H291" s="6"/>
-      <c r="I291" s="6"/>
+      <c r="H291" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I291" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J291" s="6" t="s">
         <v>30</v>
       </c>
@@ -8023,13 +8932,19 @@
       <c r="D292" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E292" s="6"/>
+      <c r="E292" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F292" s="6"/>
       <c r="G292" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H292" s="6"/>
-      <c r="I292" s="6"/>
+      <c r="H292" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I292" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J292" s="6" t="s">
         <v>30</v>
       </c>
@@ -8048,13 +8963,19 @@
       <c r="D293" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E293" s="6"/>
+      <c r="E293" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F293" s="6"/>
       <c r="G293" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H293" s="6"/>
-      <c r="I293" s="6"/>
+      <c r="H293" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I293" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J293" s="6" t="s">
         <v>30</v>
       </c>
@@ -8073,13 +8994,19 @@
       <c r="D294" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E294" s="6"/>
+      <c r="E294" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F294" s="6"/>
       <c r="G294" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H294" s="6"/>
-      <c r="I294" s="6"/>
+      <c r="H294" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I294" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J294" s="6" t="s">
         <v>30</v>
       </c>
@@ -8098,13 +9025,19 @@
       <c r="D295" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E295" s="6"/>
+      <c r="E295" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F295" s="6"/>
       <c r="G295" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H295" s="6"/>
-      <c r="I295" s="6"/>
+      <c r="H295" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I295" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J295" s="6" t="s">
         <v>30</v>
       </c>
@@ -8123,13 +9056,19 @@
       <c r="D296" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E296" s="6"/>
+      <c r="E296" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F296" s="6"/>
       <c r="G296" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H296" s="6"/>
-      <c r="I296" s="6"/>
+      <c r="H296" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I296" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J296" s="6" t="s">
         <v>30</v>
       </c>
@@ -8148,13 +9087,19 @@
       <c r="D297" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E297" s="6"/>
+      <c r="E297" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F297" s="6"/>
       <c r="G297" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H297" s="6"/>
-      <c r="I297" s="6"/>
+      <c r="H297" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I297" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J297" s="6" t="s">
         <v>30</v>
       </c>
@@ -8173,13 +9118,19 @@
       <c r="D298" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E298" s="6"/>
+      <c r="E298" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F298" s="6"/>
       <c r="G298" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H298" s="6"/>
-      <c r="I298" s="6"/>
+      <c r="H298" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I298" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J298" s="6" t="s">
         <v>30</v>
       </c>
@@ -8198,13 +9149,19 @@
       <c r="D299" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E299" s="6"/>
+      <c r="E299" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F299" s="6"/>
       <c r="G299" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H299" s="6"/>
-      <c r="I299" s="6"/>
+      <c r="H299" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I299" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J299" s="6" t="s">
         <v>30</v>
       </c>
@@ -8223,13 +9180,19 @@
       <c r="D300" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E300" s="6"/>
+      <c r="E300" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F300" s="6"/>
       <c r="G300" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H300" s="6"/>
-      <c r="I300" s="6"/>
+      <c r="H300" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I300" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J300" s="6" t="s">
         <v>30</v>
       </c>
@@ -8275,13 +9238,19 @@
       <c r="D302" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E302" s="6"/>
+      <c r="E302" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F302" s="6"/>
       <c r="G302" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H302" s="6"/>
-      <c r="I302" s="6"/>
+      <c r="H302" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I302" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J302" s="6" t="s">
         <v>30</v>
       </c>
@@ -8373,13 +9342,19 @@
       <c r="D306" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E306" s="6"/>
+      <c r="E306" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F306" s="6"/>
       <c r="G306" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H306" s="6"/>
-      <c r="I306" s="6"/>
+      <c r="H306" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I306" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J306" s="6" t="s">
         <v>30</v>
       </c>
@@ -8425,13 +9400,19 @@
       <c r="D308" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E308" s="6"/>
+      <c r="E308" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F308" s="6"/>
       <c r="G308" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H308" s="6"/>
-      <c r="I308" s="6"/>
+      <c r="H308" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I308" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J308" s="6" t="s">
         <v>30</v>
       </c>
@@ -8450,13 +9431,19 @@
       <c r="D309" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E309" s="6"/>
+      <c r="E309" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F309" s="6"/>
       <c r="G309" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H309" s="6"/>
-      <c r="I309" s="6"/>
+      <c r="H309" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I309" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J309" s="6" t="s">
         <v>30</v>
       </c>
@@ -8502,13 +9489,19 @@
       <c r="D311" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E311" s="6"/>
+      <c r="E311" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F311" s="6"/>
       <c r="G311" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H311" s="6"/>
-      <c r="I311" s="6"/>
+      <c r="H311" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I311" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J311" s="6" t="s">
         <v>30</v>
       </c>
@@ -8589,13 +9582,19 @@
       <c r="D314" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E314" s="6"/>
+      <c r="E314" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F314" s="6"/>
       <c r="G314" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H314" s="6"/>
-      <c r="I314" s="6"/>
+      <c r="H314" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I314" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J314" s="6" t="s">
         <v>30</v>
       </c>
@@ -8614,13 +9613,19 @@
       <c r="D315" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E315" s="6"/>
+      <c r="E315" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F315" s="6"/>
       <c r="G315" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H315" s="6"/>
-      <c r="I315" s="6"/>
+      <c r="H315" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I315" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J315" s="6" t="s">
         <v>30</v>
       </c>
@@ -8691,13 +9696,19 @@
       <c r="D318" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E318" s="6"/>
+      <c r="E318" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F318" s="6"/>
       <c r="G318" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H318" s="6"/>
-      <c r="I318" s="6"/>
+      <c r="H318" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I318" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J318" s="6" t="s">
         <v>30</v>
       </c>
@@ -8716,13 +9727,19 @@
       <c r="D319" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E319" s="6"/>
+      <c r="E319" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F319" s="6"/>
       <c r="G319" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H319" s="6"/>
-      <c r="I319" s="6"/>
+      <c r="H319" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I319" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J319" s="6" t="s">
         <v>30</v>
       </c>
@@ -8768,13 +9785,19 @@
       <c r="D321" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E321" s="6"/>
+      <c r="E321" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F321" s="6"/>
       <c r="G321" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H321" s="6"/>
-      <c r="I321" s="6"/>
+      <c r="H321" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I321" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J321" s="6" t="s">
         <v>30</v>
       </c>
@@ -8793,17 +9816,25 @@
       <c r="D322" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E322" s="6"/>
+      <c r="E322" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F322" s="6"/>
       <c r="G322" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H322" s="6"/>
-      <c r="I322" s="6"/>
+      <c r="H322" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I322" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J322" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K322" s="6"/>
+      <c r="K322" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="323" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="6">
@@ -8872,13 +9903,19 @@
       <c r="D325" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E325" s="6"/>
+      <c r="E325" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F325" s="6"/>
       <c r="G325" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H325" s="6"/>
-      <c r="I325" s="6"/>
+      <c r="H325" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I325" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J325" s="6" t="s">
         <v>30</v>
       </c>
@@ -8897,13 +9934,19 @@
       <c r="D326" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E326" s="6"/>
+      <c r="E326" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F326" s="6"/>
       <c r="G326" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H326" s="6"/>
-      <c r="I326" s="6"/>
+      <c r="H326" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I326" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J326" s="6" t="s">
         <v>30</v>
       </c>
@@ -8954,8 +9997,12 @@
       <c r="G328" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H328" s="6"/>
-      <c r="I328" s="6"/>
+      <c r="H328" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I328" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J328" s="6" t="s">
         <v>30</v>
       </c>
@@ -8974,13 +10021,19 @@
       <c r="D329" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E329" s="6"/>
+      <c r="E329" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F329" s="6"/>
       <c r="G329" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H329" s="6"/>
-      <c r="I329" s="6"/>
+      <c r="H329" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I329" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J329" s="6" t="s">
         <v>30</v>
       </c>
@@ -9240,13 +10293,19 @@
       <c r="D339" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E339" s="6"/>
+      <c r="E339" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F339" s="6"/>
       <c r="G339" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H339" s="6"/>
-      <c r="I339" s="6"/>
+      <c r="H339" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I339" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J339" s="6" t="s">
         <v>30</v>
       </c>
@@ -9319,13 +10378,19 @@
       <c r="D342" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E342" s="6"/>
+      <c r="E342" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F342" s="6"/>
       <c r="G342" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H342" s="6"/>
-      <c r="I342" s="6"/>
+      <c r="H342" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I342" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J342" s="6" t="s">
         <v>30</v>
       </c>
@@ -9398,13 +10463,19 @@
       <c r="D345" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E345" s="8"/>
+      <c r="E345" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="F345" s="8"/>
       <c r="G345" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H345" s="8"/>
-      <c r="I345" s="8"/>
+      <c r="H345" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I345" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J345" s="8" t="s">
         <v>30</v>
       </c>
@@ -9423,13 +10494,19 @@
       <c r="D346" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E346" s="9"/>
+      <c r="E346" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F346" s="9"/>
       <c r="G346" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H346" s="9"/>
-      <c r="I346" s="9"/>
+      <c r="H346" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I346" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J346" s="10" t="s">
         <v>30</v>
       </c>
@@ -9496,13 +10573,19 @@
       <c r="D349" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E349" s="6"/>
+      <c r="E349" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F349" s="6"/>
       <c r="G349" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H349" s="6"/>
-      <c r="I349" s="6"/>
+      <c r="H349" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I349" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J349" s="6" t="s">
         <v>30</v>
       </c>
@@ -9548,13 +10631,19 @@
       <c r="D351" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E351" s="6"/>
+      <c r="E351" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F351" s="6"/>
       <c r="G351" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H351" s="6"/>
-      <c r="I351" s="6"/>
+      <c r="H351" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I351" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J351" s="6" t="s">
         <v>30</v>
       </c>
@@ -9600,13 +10689,19 @@
       <c r="D353" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E353" s="6"/>
+      <c r="E353" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F353" s="6"/>
       <c r="G353" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H353" s="6"/>
-      <c r="I353" s="6"/>
+      <c r="H353" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I353" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J353" s="6" t="s">
         <v>30</v>
       </c>
@@ -9650,15 +10745,21 @@
       <c r="D355" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E355" s="6"/>
+      <c r="E355" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F355" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G355" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H355" s="6"/>
-      <c r="I355" s="6"/>
+      <c r="H355" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I355" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J355" s="6" t="s">
         <v>30</v>
       </c>
@@ -9756,13 +10857,19 @@
       <c r="D359" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E359" s="6"/>
+      <c r="E359" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F359" s="6"/>
       <c r="G359" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H359" s="6"/>
-      <c r="I359" s="6"/>
+      <c r="H359" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I359" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J359" s="6" t="s">
         <v>30</v>
       </c>
@@ -9781,13 +10888,19 @@
       <c r="D360" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E360" s="6"/>
+      <c r="E360" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F360" s="6"/>
       <c r="G360" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H360" s="6"/>
-      <c r="I360" s="6"/>
+      <c r="H360" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I360" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J360" s="6" t="s">
         <v>30</v>
       </c>
@@ -9806,13 +10919,19 @@
       <c r="D361" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E361" s="6"/>
+      <c r="E361" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F361" s="6"/>
       <c r="G361" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H361" s="6"/>
-      <c r="I361" s="6"/>
+      <c r="H361" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I361" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J361" s="6" t="s">
         <v>30</v>
       </c>
@@ -9854,13 +10973,19 @@
       <c r="D363" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E363" s="6"/>
+      <c r="E363" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F363" s="6"/>
       <c r="G363" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H363" s="6"/>
-      <c r="I363" s="6"/>
+      <c r="H363" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I363" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J363" s="6" t="s">
         <v>30</v>
       </c>
@@ -9968,13 +11093,19 @@
       <c r="D367" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E367" s="6"/>
+      <c r="E367" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F367" s="6"/>
       <c r="G367" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H367" s="6"/>
-      <c r="I367" s="6"/>
+      <c r="H367" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I367" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J367" s="6" t="s">
         <v>30</v>
       </c>
@@ -9993,13 +11124,19 @@
       <c r="D368" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E368" s="6"/>
+      <c r="E368" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="F368" s="6"/>
       <c r="G368" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H368" s="6"/>
-      <c r="I368" s="6"/>
+      <c r="H368" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I368" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J368" s="6" t="s">
         <v>30</v>
       </c>
@@ -10045,13 +11182,19 @@
       <c r="D370" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E370" s="6"/>
+      <c r="E370" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F370" s="6"/>
       <c r="G370" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H370" s="6"/>
-      <c r="I370" s="6"/>
+      <c r="H370" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I370" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J370" s="6" t="s">
         <v>30</v>
       </c>
@@ -10098,7 +11241,9 @@
         <v>24</v>
       </c>
       <c r="E372" s="6"/>
-      <c r="F372" s="6"/>
+      <c r="F372" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G372" s="11" t="s">
         <v>17</v>
       </c>
@@ -10107,7 +11252,9 @@
       <c r="J372" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K372" s="6"/>
+      <c r="K372" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="373" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="6">
@@ -10122,13 +11269,19 @@
       <c r="D373" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E373" s="6"/>
+      <c r="E373" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F373" s="6"/>
       <c r="G373" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H373" s="6"/>
-      <c r="I373" s="6"/>
+      <c r="H373" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I373" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J373" s="6" t="s">
         <v>30</v>
       </c>
@@ -10147,13 +11300,19 @@
       <c r="D374" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E374" s="6"/>
+      <c r="E374" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F374" s="6"/>
       <c r="G374" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H374" s="6"/>
-      <c r="I374" s="6"/>
+      <c r="H374" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I374" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J374" s="6" t="s">
         <v>30</v>
       </c>
@@ -10199,13 +11358,19 @@
       <c r="D376" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E376" s="6"/>
+      <c r="E376" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F376" s="6"/>
       <c r="G376" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H376" s="6"/>
-      <c r="I376" s="6"/>
+      <c r="H376" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I376" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J376" s="6" t="s">
         <v>30</v>
       </c>
@@ -10251,13 +11416,19 @@
       <c r="D378" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E378" s="6"/>
+      <c r="E378" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F378" s="6"/>
       <c r="G378" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H378" s="6"/>
-      <c r="I378" s="6"/>
+      <c r="H378" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I378" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J378" s="6" t="s">
         <v>30</v>
       </c>
@@ -10326,13 +11497,19 @@
       <c r="D381" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E381" s="6"/>
+      <c r="E381" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F381" s="6"/>
       <c r="G381" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H381" s="6"/>
-      <c r="I381" s="6"/>
+      <c r="H381" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I381" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J381" s="6" t="s">
         <v>30</v>
       </c>
@@ -10372,13 +11549,19 @@
         <v>14</v>
       </c>
       <c r="D383" s="6"/>
-      <c r="E383" s="6"/>
+      <c r="E383" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F383" s="6"/>
       <c r="G383" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H383" s="6"/>
-      <c r="I383" s="6"/>
+      <c r="H383" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I383" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J383" s="6" t="s">
         <v>30</v>
       </c>
@@ -10397,13 +11580,19 @@
       <c r="D384" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E384" s="6"/>
+      <c r="E384" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F384" s="6"/>
       <c r="G384" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H384" s="6"/>
-      <c r="I384" s="6"/>
+      <c r="H384" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I384" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J384" s="6" t="s">
         <v>30</v>
       </c>
@@ -10449,13 +11638,19 @@
       <c r="D386" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E386" s="8"/>
+      <c r="E386" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="F386" s="8"/>
       <c r="G386" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H386" s="8"/>
-      <c r="I386" s="8"/>
+      <c r="H386" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I386" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J386" s="8" t="s">
         <v>30</v>
       </c>
@@ -10547,13 +11742,19 @@
       <c r="D390" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E390" s="6"/>
+      <c r="E390" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F390" s="6"/>
       <c r="G390" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H390" s="6"/>
-      <c r="I390" s="6"/>
+      <c r="H390" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I390" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J390" s="11" t="s">
         <v>30</v>
       </c>
@@ -10572,17 +11773,25 @@
       <c r="D391" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E391" s="6"/>
+      <c r="E391" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F391" s="6"/>
       <c r="G391" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H391" s="6"/>
-      <c r="I391" s="6"/>
+      <c r="H391" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I391" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J391" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K391" s="6"/>
+      <c r="K391" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="392" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="6">
@@ -10622,13 +11831,19 @@
       <c r="D393" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E393" s="6"/>
+      <c r="E393" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F393" s="6"/>
       <c r="G393" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H393" s="6"/>
-      <c r="I393" s="6"/>
+      <c r="H393" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I393" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J393" s="11" t="s">
         <v>30</v>
       </c>
@@ -10647,13 +11862,19 @@
       <c r="D394" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E394" s="6"/>
+      <c r="E394" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F394" s="6"/>
       <c r="G394" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H394" s="6"/>
-      <c r="I394" s="6"/>
+      <c r="H394" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I394" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J394" s="11" t="s">
         <v>30</v>
       </c>
@@ -10672,13 +11893,19 @@
       <c r="D395" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E395" s="6"/>
+      <c r="E395" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F395" s="6"/>
       <c r="G395" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H395" s="6"/>
-      <c r="I395" s="6"/>
+      <c r="H395" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I395" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J395" s="11" t="s">
         <v>30</v>
       </c>
@@ -10745,13 +11972,19 @@
       <c r="D398" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E398" s="9"/>
+      <c r="E398" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F398" s="9"/>
       <c r="G398" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H398" s="9"/>
-      <c r="I398" s="9"/>
+      <c r="H398" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I398" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J398" s="10" t="s">
         <v>30</v>
       </c>
@@ -10874,13 +12107,19 @@
       <c r="D403" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E403" s="6"/>
+      <c r="E403" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F403" s="6"/>
       <c r="G403" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H403" s="6"/>
-      <c r="I403" s="6"/>
+      <c r="H403" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I403" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J403" s="6" t="s">
         <v>30</v>
       </c>
@@ -10926,13 +12165,17 @@
       <c r="D405" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E405" s="6"/>
+      <c r="E405" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F405" s="6"/>
       <c r="G405" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H405" s="6"/>
-      <c r="I405" s="6"/>
+      <c r="I405" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J405" s="6" t="s">
         <v>30</v>
       </c>
@@ -10951,13 +12194,19 @@
       <c r="D406" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E406" s="6"/>
+      <c r="E406" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F406" s="6"/>
       <c r="G406" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H406" s="6"/>
-      <c r="I406" s="6"/>
+      <c r="H406" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I406" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J406" s="6" t="s">
         <v>30</v>
       </c>
@@ -11001,13 +12250,19 @@
       <c r="D408" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E408" s="6"/>
+      <c r="E408" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F408" s="6"/>
       <c r="G408" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H408" s="6"/>
-      <c r="I408" s="6"/>
+      <c r="H408" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I408" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J408" s="6" t="s">
         <v>30</v>
       </c>
@@ -11026,13 +12281,19 @@
       <c r="D409" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E409" s="6"/>
+      <c r="E409" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F409" s="6"/>
       <c r="G409" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H409" s="6"/>
-      <c r="I409" s="6"/>
+      <c r="H409" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I409" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J409" s="6" t="s">
         <v>30</v>
       </c>
@@ -11074,13 +12335,19 @@
       <c r="D411" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E411" s="6"/>
+      <c r="E411" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F411" s="6"/>
       <c r="G411" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H411" s="6"/>
-      <c r="I411" s="6"/>
+      <c r="H411" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I411" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J411" s="6" t="s">
         <v>30</v>
       </c>
@@ -11099,13 +12366,19 @@
       <c r="D412" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E412" s="6"/>
+      <c r="E412" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F412" s="6"/>
       <c r="G412" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H412" s="6"/>
-      <c r="I412" s="6"/>
+      <c r="H412" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I412" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J412" s="6" t="s">
         <v>30</v>
       </c>
@@ -11124,13 +12397,19 @@
       <c r="D413" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E413" s="6"/>
+      <c r="E413" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F413" s="6"/>
       <c r="G413" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H413" s="6"/>
-      <c r="I413" s="6"/>
+      <c r="H413" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I413" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J413" s="6" t="s">
         <v>30</v>
       </c>
@@ -11176,13 +12455,19 @@
       <c r="D415" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E415" s="6"/>
+      <c r="E415" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F415" s="6"/>
       <c r="G415" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H415" s="6"/>
-      <c r="I415" s="6"/>
+      <c r="H415" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I415" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J415" s="6" t="s">
         <v>30</v>
       </c>
@@ -11201,13 +12486,19 @@
       <c r="D416" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E416" s="6"/>
+      <c r="E416" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F416" s="6"/>
       <c r="G416" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H416" s="6"/>
-      <c r="I416" s="6"/>
+      <c r="H416" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I416" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J416" s="6" t="s">
         <v>30</v>
       </c>
@@ -11315,13 +12606,19 @@
       <c r="D420" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E420" s="6"/>
+      <c r="E420" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F420" s="6"/>
       <c r="G420" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H420" s="6"/>
-      <c r="I420" s="6"/>
+      <c r="H420" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I420" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J420" s="6" t="s">
         <v>30</v>
       </c>
@@ -11340,13 +12637,19 @@
       <c r="D421" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E421" s="6"/>
+      <c r="E421" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F421" s="6"/>
       <c r="G421" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H421" s="6"/>
-      <c r="I421" s="6"/>
+      <c r="H421" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I421" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J421" s="6" t="s">
         <v>30</v>
       </c>
@@ -11419,13 +12722,19 @@
       <c r="D424" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E424" s="6"/>
+      <c r="E424" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F424" s="6"/>
       <c r="G424" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H424" s="6"/>
-      <c r="I424" s="6"/>
+      <c r="H424" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J424" s="6" t="s">
         <v>30</v>
       </c>
@@ -11444,13 +12753,19 @@
       <c r="D425" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E425" s="6"/>
+      <c r="E425" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F425" s="6"/>
       <c r="G425" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H425" s="6"/>
-      <c r="I425" s="6"/>
+      <c r="H425" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I425" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J425" s="6" t="s">
         <v>30</v>
       </c>
@@ -11470,7 +12785,9 @@
         <v>22</v>
       </c>
       <c r="E426" s="6"/>
-      <c r="F426" s="6"/>
+      <c r="F426" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G426" s="11" t="s">
         <v>18</v>
       </c>
@@ -11517,13 +12834,19 @@
       <c r="D428" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E428" s="6"/>
+      <c r="E428" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F428" s="6"/>
       <c r="G428" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H428" s="6"/>
-      <c r="I428" s="6"/>
+      <c r="H428" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I428" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J428" s="6" t="s">
         <v>30</v>
       </c>
@@ -11565,17 +12888,25 @@
       <c r="D430" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E430" s="6"/>
+      <c r="E430" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F430" s="6"/>
       <c r="G430" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H430" s="6"/>
-      <c r="I430" s="6"/>
+      <c r="H430" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I430" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J430" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K430" s="6"/>
+      <c r="K430" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="431" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="6">
@@ -11640,13 +12971,19 @@
       <c r="D433" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E433" s="6"/>
+      <c r="E433" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F433" s="6"/>
       <c r="G433" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H433" s="6"/>
-      <c r="I433" s="6"/>
+      <c r="H433" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I433" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J433" s="6" t="s">
         <v>30</v>
       </c>
@@ -11665,13 +13002,19 @@
       <c r="D434" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E434" s="6"/>
+      <c r="E434" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F434" s="6"/>
       <c r="G434" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H434" s="6"/>
-      <c r="I434" s="6"/>
+      <c r="H434" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I434" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J434" s="6" t="s">
         <v>30</v>
       </c>
@@ -11690,13 +13033,19 @@
       <c r="D435" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E435" s="6"/>
+      <c r="E435" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F435" s="6"/>
       <c r="G435" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H435" s="6"/>
-      <c r="I435" s="6"/>
+      <c r="H435" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I435" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J435" s="6" t="s">
         <v>30</v>
       </c>
@@ -11738,13 +13087,19 @@
       <c r="D437" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E437" s="6"/>
+      <c r="E437" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F437" s="6"/>
       <c r="G437" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H437" s="6"/>
-      <c r="I437" s="6"/>
+      <c r="H437" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I437" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J437" s="6" t="s">
         <v>30</v>
       </c>
@@ -11763,13 +13118,19 @@
       <c r="D438" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E438" s="6"/>
+      <c r="E438" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F438" s="6"/>
       <c r="G438" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H438" s="6"/>
-      <c r="I438" s="6"/>
+      <c r="H438" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I438" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J438" s="6" t="s">
         <v>30</v>
       </c>
@@ -11788,17 +13149,25 @@
       <c r="D439" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E439" s="6"/>
+      <c r="E439" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F439" s="6"/>
       <c r="G439" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H439" s="6"/>
-      <c r="I439" s="6"/>
+      <c r="H439" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I439" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J439" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K439" s="6"/>
+      <c r="K439" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="440" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
@@ -11836,17 +13205,25 @@
       <c r="D441" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E441" s="6"/>
+      <c r="E441" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F441" s="6"/>
       <c r="G441" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H441" s="6"/>
-      <c r="I441" s="6"/>
+      <c r="H441" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I441" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J441" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K441" s="6"/>
+      <c r="K441" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="442" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6">
@@ -11861,13 +13238,19 @@
       <c r="D442" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E442" s="6"/>
+      <c r="E442" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="F442" s="6"/>
       <c r="G442" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H442" s="6"/>
-      <c r="I442" s="6"/>
+      <c r="H442" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I442" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J442" s="6" t="s">
         <v>30</v>
       </c>
@@ -11886,17 +13269,25 @@
       <c r="D443" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E443" s="6"/>
+      <c r="E443" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F443" s="6"/>
       <c r="G443" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H443" s="6"/>
-      <c r="I443" s="6"/>
+      <c r="H443" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I443" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J443" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K443" s="6"/>
+      <c r="K443" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="444" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
@@ -11937,7 +13328,9 @@
         <v>24</v>
       </c>
       <c r="E445" s="6"/>
-      <c r="F445" s="6"/>
+      <c r="F445" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G445" s="11" t="s">
         <v>18</v>
       </c>
@@ -11946,7 +13339,9 @@
       <c r="J445" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K445" s="6"/>
+      <c r="K445" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="446" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="6">
@@ -11961,13 +13356,19 @@
       <c r="D446" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E446" s="6"/>
+      <c r="E446" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="F446" s="6"/>
       <c r="G446" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H446" s="6"/>
-      <c r="I446" s="6"/>
+      <c r="H446" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I446" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J446" s="6" t="s">
         <v>30</v>
       </c>
@@ -11986,13 +13387,19 @@
       <c r="D447" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E447" s="6"/>
+      <c r="E447" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F447" s="6"/>
       <c r="G447" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H447" s="6"/>
-      <c r="I447" s="6"/>
+      <c r="H447" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I447" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J447" s="6" t="s">
         <v>30</v>
       </c>
@@ -12011,13 +13418,19 @@
       <c r="D448" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E448" s="6"/>
+      <c r="E448" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F448" s="6"/>
       <c r="G448" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H448" s="6"/>
-      <c r="I448" s="6"/>
+      <c r="H448" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I448" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J448" s="6" t="s">
         <v>30</v>
       </c>
@@ -12063,13 +13476,19 @@
       <c r="D450" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E450" s="6"/>
+      <c r="E450" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F450" s="6"/>
       <c r="G450" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H450" s="6"/>
-      <c r="I450" s="6"/>
+      <c r="H450" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I450" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J450" s="6" t="s">
         <v>30</v>
       </c>
@@ -12088,17 +13507,25 @@
       <c r="D451" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E451" s="6"/>
+      <c r="E451" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F451" s="6"/>
       <c r="G451" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H451" s="6"/>
-      <c r="I451" s="6"/>
+      <c r="H451" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I451" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J451" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K451" s="6"/>
+      <c r="K451" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="452" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
@@ -12140,17 +13567,25 @@
       <c r="D453" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E453" s="6"/>
+      <c r="E453" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F453" s="6"/>
       <c r="G453" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H453" s="6"/>
-      <c r="I453" s="6"/>
+      <c r="H453" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I453" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J453" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K453" s="6"/>
+      <c r="K453" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="454" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="6">
@@ -12165,17 +13600,25 @@
       <c r="D454" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E454" s="6"/>
+      <c r="E454" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F454" s="6"/>
       <c r="G454" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H454" s="6"/>
-      <c r="I454" s="6"/>
+      <c r="H454" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I454" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J454" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K454" s="6"/>
+      <c r="K454" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="455" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="6">
@@ -12217,17 +13660,25 @@
       <c r="D456" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E456" s="6"/>
+      <c r="E456" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F456" s="6"/>
       <c r="G456" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H456" s="6"/>
-      <c r="I456" s="6"/>
+      <c r="H456" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I456" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J456" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K456" s="6"/>
+      <c r="K456" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="457" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6">
@@ -12319,13 +13770,19 @@
       <c r="D460" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E460" s="6"/>
+      <c r="E460" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F460" s="6"/>
       <c r="G460" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H460" s="6"/>
-      <c r="I460" s="6"/>
+      <c r="H460" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I460" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J460" s="6" t="s">
         <v>30</v>
       </c>
@@ -12475,13 +13932,19 @@
       <c r="D466" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E466" s="6"/>
+      <c r="E466" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F466" s="6"/>
       <c r="G466" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H466" s="6"/>
-      <c r="I466" s="6"/>
+      <c r="H466" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I466" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J466" s="6" t="s">
         <v>30</v>
       </c>
@@ -12501,7 +13964,9 @@
         <v>24</v>
       </c>
       <c r="E467" s="6"/>
-      <c r="F467" s="6"/>
+      <c r="F467" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G467" s="11" t="s">
         <v>18</v>
       </c>
@@ -12525,13 +13990,19 @@
       <c r="D468" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E468" s="6"/>
+      <c r="E468" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F468" s="6"/>
       <c r="G468" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H468" s="6"/>
-      <c r="I468" s="6"/>
+      <c r="H468" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I468" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J468" s="6" t="s">
         <v>30</v>
       </c>
@@ -12608,13 +14079,19 @@
       <c r="D471" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E471" s="6"/>
+      <c r="E471" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F471" s="6"/>
       <c r="G471" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H471" s="6"/>
-      <c r="I471" s="6"/>
+      <c r="H471" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I471" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J471" s="6" t="s">
         <v>30</v>
       </c>
@@ -12680,7 +14157,9 @@
         <v>24</v>
       </c>
       <c r="E474" s="6"/>
-      <c r="F474" s="6"/>
+      <c r="F474" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G474" s="11" t="s">
         <v>18</v>
       </c>
@@ -12777,13 +14256,19 @@
       <c r="D478" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E478" s="6"/>
+      <c r="E478" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F478" s="6"/>
       <c r="G478" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H478" s="6"/>
-      <c r="I478" s="6"/>
+      <c r="H478" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I478" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J478" s="6" t="s">
         <v>30</v>
       </c>
@@ -12802,17 +14287,25 @@
       <c r="D479" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E479" s="6"/>
+      <c r="E479" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F479" s="6"/>
       <c r="G479" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H479" s="6"/>
-      <c r="I479" s="6"/>
+      <c r="H479" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I479" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J479" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K479" s="6"/>
+      <c r="K479" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="480" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="6">
@@ -13011,13 +14504,19 @@
       <c r="D488" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E488" s="6"/>
+      <c r="E488" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F488" s="6"/>
       <c r="G488" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H488" s="6"/>
-      <c r="I488" s="6"/>
+      <c r="H488" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I488" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J488" s="6" t="s">
         <v>30</v>
       </c>
@@ -13294,15 +14793,23 @@
       <c r="D499" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E499" s="6"/>
+      <c r="E499" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F499" s="6"/>
       <c r="G499" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H499" s="6"/>
-      <c r="I499" s="6"/>
+      <c r="H499" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I499" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J499" s="6"/>
-      <c r="K499" s="6"/>
+      <c r="K499" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="500" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6">
@@ -13448,13 +14955,19 @@
       <c r="D505" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E505" s="6"/>
+      <c r="E505" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F505" s="6"/>
       <c r="G505" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H505" s="6"/>
-      <c r="I505" s="6"/>
+      <c r="H505" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I505" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J505" s="11" t="s">
         <v>30</v>
       </c>
@@ -13865,13 +15378,19 @@
       <c r="D522" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E522" s="9"/>
+      <c r="E522" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F522" s="9"/>
       <c r="G522" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H522" s="9"/>
-      <c r="I522" s="9"/>
+      <c r="H522" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I522" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J522" s="10" t="s">
         <v>30</v>
       </c>
@@ -13940,17 +15459,25 @@
       <c r="D525" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E525" s="6"/>
+      <c r="E525" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F525" s="6"/>
       <c r="G525" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H525" s="6"/>
-      <c r="I525" s="6"/>
+      <c r="H525" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I525" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J525" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K525" s="6"/>
+      <c r="K525" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="526" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="6">
@@ -13965,17 +15492,25 @@
       <c r="D526" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E526" s="6"/>
+      <c r="E526" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F526" s="6"/>
       <c r="G526" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H526" s="6"/>
-      <c r="I526" s="6"/>
+      <c r="H526" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I526" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J526" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K526" s="6"/>
+      <c r="K526" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="527" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="6">
@@ -14017,13 +15552,19 @@
       <c r="D528" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E528" s="6"/>
+      <c r="E528" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F528" s="6"/>
       <c r="G528" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H528" s="6"/>
-      <c r="I528" s="6"/>
+      <c r="H528" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I528" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J528" s="6" t="s">
         <v>30</v>
       </c>
@@ -14042,17 +15583,25 @@
       <c r="D529" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E529" s="6"/>
+      <c r="E529" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F529" s="6"/>
       <c r="G529" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H529" s="6"/>
-      <c r="I529" s="6"/>
+      <c r="H529" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I529" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J529" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K529" s="6"/>
+      <c r="K529" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="530" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="6">
@@ -14117,7 +15666,6 @@
       <c r="D532" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E532" s="6"/>
       <c r="F532" s="6"/>
       <c r="G532" s="11" t="s">
         <v>18</v>
@@ -14142,17 +15690,25 @@
       <c r="D533" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E533" s="6"/>
+      <c r="E533" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F533" s="6"/>
       <c r="G533" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H533" s="6"/>
-      <c r="I533" s="6"/>
+      <c r="H533" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I533" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J533" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K533" s="6"/>
+      <c r="K533" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="534" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="6">
@@ -14192,17 +15748,25 @@
       <c r="D535" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E535" s="6"/>
+      <c r="E535" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F535" s="6"/>
       <c r="G535" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H535" s="6"/>
-      <c r="I535" s="6"/>
+      <c r="H535" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I535" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J535" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K535" s="6"/>
+      <c r="K535" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="536" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="6">
@@ -14216,7 +15780,9 @@
       </c>
       <c r="D536" s="6"/>
       <c r="E536" s="6"/>
-      <c r="F536" s="6"/>
+      <c r="F536" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="G536" s="11" t="s">
         <v>18</v>
       </c>
@@ -14225,7 +15791,9 @@
       <c r="J536" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K536" s="6"/>
+      <c r="K536" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="537" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="6">
@@ -14240,17 +15808,25 @@
       <c r="D537" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E537" s="6"/>
+      <c r="E537" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F537" s="6"/>
       <c r="G537" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H537" s="6"/>
-      <c r="I537" s="6"/>
+      <c r="H537" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I537" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J537" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K537" s="6"/>
+      <c r="K537" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="538" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="6">
@@ -14265,17 +15841,25 @@
       <c r="D538" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E538" s="6"/>
+      <c r="E538" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F538" s="6"/>
       <c r="G538" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H538" s="6"/>
-      <c r="I538" s="6"/>
+      <c r="H538" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I538" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J538" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K538" s="6"/>
+      <c r="K538" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="539" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="6">
@@ -14315,17 +15899,25 @@
       <c r="D540" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E540" s="6"/>
+      <c r="E540" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F540" s="6"/>
       <c r="G540" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H540" s="6"/>
-      <c r="I540" s="6"/>
+      <c r="H540" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I540" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J540" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K540" s="6"/>
+      <c r="K540" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="541" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="6">
@@ -14340,17 +15932,25 @@
       <c r="D541" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E541" s="6"/>
+      <c r="E541" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F541" s="6"/>
       <c r="G541" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H541" s="6"/>
-      <c r="I541" s="6"/>
+      <c r="H541" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I541" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J541" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K541" s="6"/>
+      <c r="K541" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="542" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="6">
@@ -14365,17 +15965,25 @@
       <c r="D542" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E542" s="6"/>
+      <c r="E542" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F542" s="6"/>
       <c r="G542" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H542" s="6"/>
-      <c r="I542" s="6"/>
+      <c r="H542" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I542" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J542" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K542" s="6"/>
+      <c r="K542" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="543" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="6">
@@ -14463,13 +16071,19 @@
       <c r="D546" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E546" s="6"/>
+      <c r="E546" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F546" s="6"/>
       <c r="G546" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H546" s="6"/>
-      <c r="I546" s="6"/>
+      <c r="H546" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I546" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J546" s="6" t="s">
         <v>30</v>
       </c>
@@ -14513,13 +16127,19 @@
       <c r="D548" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E548" s="6"/>
+      <c r="E548" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="F548" s="6"/>
       <c r="G548" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H548" s="6"/>
-      <c r="I548" s="6"/>
+      <c r="H548" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I548" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J548" s="6" t="s">
         <v>30</v>
       </c>
@@ -14538,13 +16158,15 @@
       <c r="D549" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E549" s="6"/>
+      <c r="E549" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="F549" s="6"/>
       <c r="G549" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H549" s="6"/>
-      <c r="I549" s="6"/>
+      <c r="H549" s="2"/>
+      <c r="I549" s="2"/>
       <c r="J549" s="6" t="s">
         <v>30</v>
       </c>
@@ -14688,13 +16310,19 @@
       <c r="D555" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E555" s="6"/>
+      <c r="E555" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F555" s="6"/>
       <c r="G555" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H555" s="6"/>
-      <c r="I555" s="6"/>
+      <c r="H555" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I555" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J555" s="6" t="s">
         <v>30</v>
       </c>
@@ -14740,13 +16368,19 @@
       <c r="D557" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E557" s="9"/>
+      <c r="E557" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="F557" s="9"/>
       <c r="G557" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H557" s="9"/>
-      <c r="I557" s="9"/>
+      <c r="H557" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I557" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J557" s="10" t="s">
         <v>30</v>
       </c>
@@ -14790,13 +16424,19 @@
       <c r="D559" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E559" s="6"/>
+      <c r="E559" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F559" s="6"/>
       <c r="G559" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H559" s="6"/>
-      <c r="I559" s="6"/>
+      <c r="H559" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I559" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J559" s="11" t="s">
         <v>30</v>
       </c>
@@ -14816,7 +16456,9 @@
         <v>26</v>
       </c>
       <c r="E560" s="6"/>
-      <c r="F560" s="6"/>
+      <c r="F560" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G560" s="11" t="s">
         <v>18</v>
       </c>
@@ -14865,17 +16507,25 @@
       <c r="D562" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E562" s="6"/>
+      <c r="E562" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F562" s="6"/>
       <c r="G562" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H562" s="6"/>
-      <c r="I562" s="6"/>
+      <c r="H562" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I562" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J562" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K562" s="6"/>
+      <c r="K562" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="563" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="6">
@@ -14890,13 +16540,19 @@
       <c r="D563" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E563" s="6"/>
+      <c r="E563" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="F563" s="6"/>
       <c r="G563" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H563" s="6"/>
-      <c r="I563" s="6"/>
+      <c r="H563" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I563" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J563" s="11" t="s">
         <v>30</v>
       </c>
@@ -14915,13 +16571,19 @@
       <c r="D564" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E564" s="6"/>
+      <c r="E564" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F564" s="6"/>
       <c r="G564" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H564" s="6"/>
-      <c r="I564" s="6"/>
+      <c r="H564" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I564" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J564" s="11" t="s">
         <v>30</v>
       </c>
@@ -14940,17 +16602,25 @@
       <c r="D565" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E565" s="6"/>
+      <c r="E565" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F565" s="6"/>
       <c r="G565" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H565" s="6"/>
-      <c r="I565" s="6"/>
+      <c r="H565" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I565" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J565" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K565" s="6"/>
+      <c r="K565" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="566" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="6">
@@ -14965,17 +16635,25 @@
       <c r="D566" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E566" s="6"/>
+      <c r="E566" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F566" s="6"/>
       <c r="G566" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H566" s="6"/>
-      <c r="I566" s="6"/>
+      <c r="H566" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I566" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J566" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K566" s="6"/>
+      <c r="K566" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="567" spans="1:11" s="4" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A567" s="8">
@@ -15017,8 +16695,12 @@
       <c r="D568" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E568" s="9"/>
-      <c r="F568" s="9"/>
+      <c r="E568" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F568" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G568" s="10" t="s">
         <v>17</v>
       </c>
@@ -15027,7 +16709,9 @@
       <c r="J568" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K568" s="9"/>
+      <c r="K568" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="569" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="6">
@@ -15042,13 +16726,19 @@
       <c r="D569" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E569" s="6"/>
+      <c r="E569" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F569" s="6"/>
       <c r="G569" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H569" s="6"/>
-      <c r="I569" s="6"/>
+      <c r="H569" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I569" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J569" s="11" t="s">
         <v>30</v>
       </c>
@@ -15094,13 +16784,19 @@
       <c r="D571" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E571" s="6"/>
+      <c r="E571" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F571" s="6"/>
       <c r="G571" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H571" s="6"/>
-      <c r="I571" s="6"/>
+      <c r="H571" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I571" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J571" s="11" t="s">
         <v>30</v>
       </c>
@@ -15119,15 +16815,21 @@
       <c r="D572" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E572" s="6"/>
+      <c r="E572" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F572" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G572" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H572" s="6"/>
-      <c r="I572" s="6"/>
+      <c r="H572" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I572" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J572" s="11" t="s">
         <v>30</v>
       </c>
@@ -15208,13 +16910,19 @@
       <c r="D575" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E575" s="6"/>
+      <c r="E575" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F575" s="6"/>
       <c r="G575" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H575" s="6"/>
-      <c r="I575" s="6"/>
+      <c r="H575" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I575" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J575" s="11" t="s">
         <v>30</v>
       </c>
@@ -15233,13 +16941,19 @@
       <c r="D576" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E576" s="6"/>
+      <c r="E576" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F576" s="6"/>
       <c r="G576" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H576" s="6"/>
-      <c r="I576" s="6"/>
+      <c r="H576" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I576" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J576" s="11" t="s">
         <v>30</v>
       </c>
@@ -15283,13 +16997,19 @@
       <c r="D578" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E578" s="6"/>
+      <c r="E578" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F578" s="6"/>
       <c r="G578" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H578" s="6"/>
-      <c r="I578" s="6"/>
+      <c r="H578" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I578" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J578" s="11" t="s">
         <v>30</v>
       </c>
@@ -15336,7 +17056,9 @@
         <v>26</v>
       </c>
       <c r="E580" s="6"/>
-      <c r="F580" s="6"/>
+      <c r="F580" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G580" s="11" t="s">
         <v>17</v>
       </c>
@@ -15387,13 +17109,19 @@
       <c r="D582" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E582" s="9"/>
+      <c r="E582" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F582" s="9"/>
       <c r="G582" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H582" s="9"/>
-      <c r="I582" s="9"/>
+      <c r="H582" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I582" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J582" s="10" t="s">
         <v>30</v>
       </c>
@@ -15740,13 +17468,19 @@
       <c r="D597" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E597" s="6"/>
+      <c r="E597" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F597" s="6"/>
       <c r="G597" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H597" s="6"/>
-      <c r="I597" s="6"/>
+      <c r="H597" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I597" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J597" s="11" t="s">
         <v>30</v>
       </c>
@@ -15765,13 +17499,19 @@
       <c r="D598" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E598" s="6"/>
+      <c r="E598" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F598" s="6"/>
       <c r="G598" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H598" s="6"/>
-      <c r="I598" s="6"/>
+      <c r="H598" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I598" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J598" s="11" t="s">
         <v>30</v>
       </c>
@@ -15790,13 +17530,19 @@
       <c r="D599" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E599" s="6"/>
+      <c r="E599" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F599" s="6"/>
       <c r="G599" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H599" s="6"/>
-      <c r="I599" s="6"/>
+      <c r="H599" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I599" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J599" s="11" t="s">
         <v>30</v>
       </c>
@@ -15815,13 +17561,19 @@
       <c r="D600" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E600" s="6"/>
+      <c r="E600" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F600" s="6"/>
       <c r="G600" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H600" s="6"/>
-      <c r="I600" s="6"/>
+      <c r="H600" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I600" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J600" s="11" t="s">
         <v>30</v>
       </c>
@@ -15865,13 +17617,19 @@
       <c r="D602" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E602" s="6"/>
+      <c r="E602" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F602" s="6"/>
       <c r="G602" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H602" s="6"/>
-      <c r="I602" s="6"/>
+      <c r="H602" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I602" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J602" s="11" t="s">
         <v>30</v>
       </c>
@@ -15890,17 +17648,25 @@
       <c r="D603" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E603" s="6"/>
+      <c r="E603" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F603" s="6"/>
       <c r="G603" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H603" s="6"/>
-      <c r="I603" s="6"/>
+      <c r="H603" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I603" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J603" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K603" s="6"/>
+      <c r="K603" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="604" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="6">
@@ -15916,7 +17682,9 @@
         <v>38</v>
       </c>
       <c r="E604" s="6"/>
-      <c r="F604" s="6"/>
+      <c r="F604" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="G604" s="11" t="s">
         <v>18</v>
       </c>
@@ -15941,7 +17709,9 @@
         <v>38</v>
       </c>
       <c r="E605" s="6"/>
-      <c r="F605" s="6"/>
+      <c r="F605" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G605" s="11" t="s">
         <v>18</v>
       </c>
@@ -15990,17 +17760,25 @@
       <c r="D607" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E607" s="6"/>
+      <c r="E607" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F607" s="6"/>
       <c r="G607" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H607" s="6"/>
-      <c r="I607" s="6"/>
+      <c r="H607" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I607" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J607" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K607" s="6"/>
+      <c r="K607" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="608" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="6">
@@ -16015,17 +17793,23 @@
       <c r="D608" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E608" s="6"/>
+      <c r="E608" t="s">
+        <v>58</v>
+      </c>
       <c r="F608" s="6"/>
       <c r="G608" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H608" s="6"/>
-      <c r="I608" s="6"/>
+      <c r="H608" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I608" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J608" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K608" s="6"/>
+      <c r="K608" s="2"/>
     </row>
     <row r="609" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="6">
@@ -16067,17 +17851,25 @@
       <c r="D610" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E610" s="6"/>
+      <c r="E610" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F610" s="6"/>
       <c r="G610" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H610" s="6"/>
-      <c r="I610" s="6"/>
+      <c r="H610" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I610" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J610" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K610" s="6"/>
+      <c r="K610" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="611" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="6">
@@ -16092,17 +17884,25 @@
       <c r="D611" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E611" s="6"/>
+      <c r="E611" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F611" s="6"/>
       <c r="G611" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H611" s="6"/>
-      <c r="I611" s="6"/>
+      <c r="H611" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I611" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J611" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K611" s="6"/>
+      <c r="K611" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="612" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="6">
@@ -16117,17 +17917,25 @@
       <c r="D612" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E612" s="6"/>
+      <c r="E612" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F612" s="6"/>
       <c r="G612" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H612" s="6"/>
-      <c r="I612" s="6"/>
+      <c r="H612" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I612" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J612" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K612" s="6"/>
+      <c r="K612" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="613" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="6">
@@ -16142,13 +17950,19 @@
       <c r="D613" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E613" s="6"/>
+      <c r="E613" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F613" s="6"/>
       <c r="G613" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H613" s="6"/>
-      <c r="I613" s="6"/>
+      <c r="H613" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I613" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J613" s="11" t="s">
         <v>30</v>
       </c>
@@ -16168,7 +17982,9 @@
         <v>38</v>
       </c>
       <c r="E614" s="6"/>
-      <c r="F614" s="6"/>
+      <c r="F614" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G614" s="11" t="s">
         <v>18</v>
       </c>
@@ -16192,13 +18008,19 @@
       <c r="D615" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E615" s="6"/>
+      <c r="E615" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F615" s="6"/>
       <c r="G615" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H615" s="6"/>
-      <c r="I615" s="6"/>
+      <c r="H615" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I615" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J615" s="11" t="s">
         <v>30</v>
       </c>
@@ -16217,13 +18039,19 @@
       <c r="D616" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E616" s="6"/>
+      <c r="E616" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F616" s="6"/>
       <c r="G616" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H616" s="6"/>
-      <c r="I616" s="6"/>
+      <c r="H616" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I616" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J616" s="11" t="s">
         <v>30</v>
       </c>
@@ -16478,7 +18306,9 @@
         <v>41</v>
       </c>
       <c r="E626" s="6"/>
-      <c r="F626" s="6"/>
+      <c r="F626" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G626" s="11" t="s">
         <v>18</v>
       </c>
@@ -16487,7 +18317,9 @@
       <c r="J626" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K626" s="6"/>
+      <c r="K626" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="627" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="6">
@@ -16527,13 +18359,19 @@
       <c r="D628" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E628" s="6"/>
+      <c r="E628" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F628" s="6"/>
       <c r="G628" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H628" s="6"/>
-      <c r="I628" s="6"/>
+      <c r="H628" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I628" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J628" s="11" t="s">
         <v>30</v>
       </c>
@@ -16552,13 +18390,19 @@
       <c r="D629" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E629" s="6"/>
+      <c r="E629" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F629" s="6"/>
       <c r="G629" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H629" s="6"/>
-      <c r="I629" s="6"/>
+      <c r="H629" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I629" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J629" s="11" t="s">
         <v>30</v>
       </c>
@@ -16578,7 +18422,9 @@
         <v>40</v>
       </c>
       <c r="E630" s="6"/>
-      <c r="F630" s="6"/>
+      <c r="F630" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G630" s="11" t="s">
         <v>18</v>
       </c>
@@ -16587,7 +18433,9 @@
       <c r="J630" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K630" s="6"/>
+      <c r="K630" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="631" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="6">
@@ -16650,13 +18498,19 @@
       <c r="D633" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E633" s="6"/>
+      <c r="E633" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F633" s="6"/>
       <c r="G633" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H633" s="6"/>
-      <c r="I633" s="6"/>
+      <c r="H633" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I633" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J633" s="6" t="s">
         <v>30</v>
       </c>
@@ -16698,13 +18552,19 @@
       <c r="D635" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E635" s="6"/>
+      <c r="E635" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F635" s="6"/>
       <c r="G635" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H635" s="6"/>
-      <c r="I635" s="6"/>
+      <c r="H635" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I635" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J635" s="6" t="s">
         <v>30</v>
       </c>
@@ -16723,13 +18583,19 @@
       <c r="D636" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E636" s="6"/>
+      <c r="E636" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F636" s="6"/>
       <c r="G636" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H636" s="6"/>
-      <c r="I636" s="6"/>
+      <c r="H636" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I636" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J636" s="6" t="s">
         <v>30</v>
       </c>
@@ -16947,7 +18813,9 @@
         <v>40</v>
       </c>
       <c r="E645" s="6"/>
-      <c r="F645" s="6"/>
+      <c r="F645" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G645" s="11" t="s">
         <v>18</v>
       </c>
@@ -16971,13 +18839,19 @@
       <c r="D646" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E646" s="6"/>
+      <c r="E646" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F646" s="6"/>
       <c r="G646" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H646" s="6"/>
-      <c r="I646" s="6"/>
+      <c r="H646" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I646" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J646" s="6" t="s">
         <v>30</v>
       </c>
@@ -17165,13 +19039,19 @@
       <c r="D654" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E654" s="6"/>
+      <c r="E654" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F654" s="6"/>
       <c r="G654" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H654" s="6"/>
-      <c r="I654" s="6"/>
+      <c r="H654" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I654" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J654" s="6" t="s">
         <v>30</v>
       </c>
@@ -17286,17 +19166,25 @@
       <c r="D659" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E659" s="6"/>
+      <c r="E659" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F659" s="6"/>
       <c r="G659" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H659" s="6"/>
-      <c r="I659" s="6"/>
+      <c r="H659" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I659" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J659" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K659" s="6"/>
+      <c r="K659" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="660" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="6">
@@ -17311,13 +19199,19 @@
       <c r="D660" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E660" s="6"/>
+      <c r="E660" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F660" s="6"/>
       <c r="G660" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H660" s="6"/>
-      <c r="I660" s="6"/>
+      <c r="H660" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I660" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J660" s="6" t="s">
         <v>30</v>
       </c>
@@ -17361,13 +19255,19 @@
       <c r="D662" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E662" s="6"/>
+      <c r="E662" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F662" s="6"/>
       <c r="G662" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H662" s="6"/>
-      <c r="I662" s="6"/>
+      <c r="H662" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I662" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J662" s="6" t="s">
         <v>30</v>
       </c>
@@ -17412,7 +19312,9 @@
         <v>40</v>
       </c>
       <c r="E664" s="6"/>
-      <c r="F664" s="6"/>
+      <c r="F664" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G664" s="11" t="s">
         <v>18</v>
       </c>
@@ -17437,7 +19339,9 @@
         <v>40</v>
       </c>
       <c r="E665" s="6"/>
-      <c r="F665" s="6"/>
+      <c r="F665" t="s">
+        <v>54</v>
+      </c>
       <c r="G665" s="11" t="s">
         <v>18</v>
       </c>
@@ -17579,7 +19483,9 @@
         <v>40</v>
       </c>
       <c r="E671" s="6"/>
-      <c r="F671" s="6"/>
+      <c r="F671" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G671" s="11" t="s">
         <v>18</v>
       </c>
@@ -17588,7 +19494,9 @@
       <c r="J671" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K671" s="6"/>
+      <c r="K671" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="672" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="6">
@@ -17629,7 +19537,9 @@
         <v>32</v>
       </c>
       <c r="E673" s="6"/>
-      <c r="F673" s="6"/>
+      <c r="F673" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G673" s="11" t="s">
         <v>18</v>
       </c>
@@ -17654,9 +19564,7 @@
         <v>40</v>
       </c>
       <c r="E674" s="6"/>
-      <c r="F674" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F674" s="6"/>
       <c r="G674" s="11" t="s">
         <v>18</v>
       </c>
@@ -17705,13 +19613,19 @@
       <c r="D676" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E676" s="6"/>
+      <c r="E676" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F676" s="6"/>
       <c r="G676" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H676" s="6"/>
-      <c r="I676" s="6"/>
+      <c r="H676" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I676" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J676" s="6" t="s">
         <v>30</v>
       </c>
@@ -17836,13 +19750,19 @@
       <c r="D681" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E681" s="6"/>
+      <c r="E681" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F681" s="6"/>
       <c r="G681" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H681" s="6"/>
-      <c r="I681" s="6"/>
+      <c r="H681" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I681" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J681" s="6"/>
       <c r="K681" s="6"/>
     </row>
@@ -17929,7 +19849,9 @@
       </c>
       <c r="D685" s="9"/>
       <c r="E685" s="9"/>
-      <c r="F685" s="9"/>
+      <c r="F685" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="G685" s="10" t="s">
         <v>17</v>
       </c>
@@ -17998,7 +19920,9 @@
         <v>41</v>
       </c>
       <c r="E688" s="6"/>
-      <c r="F688" s="6"/>
+      <c r="F688" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="G688" s="11" t="s">
         <v>18</v>
       </c>
@@ -18022,13 +19946,19 @@
       <c r="D689" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E689" s="6"/>
+      <c r="E689" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F689" s="6"/>
       <c r="G689" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H689" s="6"/>
-      <c r="I689" s="6"/>
+      <c r="H689" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I689" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J689" s="6" t="s">
         <v>30</v>
       </c>
@@ -18047,13 +19977,19 @@
       <c r="D690" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E690" s="6"/>
+      <c r="E690" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F690" s="6"/>
       <c r="G690" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H690" s="6"/>
-      <c r="I690" s="6"/>
+      <c r="H690" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I690" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J690" s="6" t="s">
         <v>30</v>
       </c>
@@ -18072,13 +20008,19 @@
       <c r="D691" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E691" s="6"/>
+      <c r="E691" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F691" s="6"/>
       <c r="G691" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H691" s="6"/>
-      <c r="I691" s="6"/>
+      <c r="H691" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I691" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J691" s="6" t="s">
         <v>30</v>
       </c>
@@ -18097,13 +20039,19 @@
       <c r="D692" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E692" s="6"/>
+      <c r="E692" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="F692" s="6"/>
       <c r="G692" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H692" s="6"/>
-      <c r="I692" s="6"/>
+      <c r="H692" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I692" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J692" s="6" t="s">
         <v>30</v>
       </c>
@@ -18123,7 +20071,9 @@
         <v>41</v>
       </c>
       <c r="E693" s="6"/>
-      <c r="F693" s="6"/>
+      <c r="F693" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G693" s="11" t="s">
         <v>18</v>
       </c>
@@ -18172,13 +20122,19 @@
       <c r="D695" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E695" s="6"/>
+      <c r="E695" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F695" s="6"/>
       <c r="G695" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H695" s="6"/>
-      <c r="I695" s="6"/>
+      <c r="H695" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I695" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J695" s="6" t="s">
         <v>30</v>
       </c>
@@ -18197,13 +20153,19 @@
       <c r="D696" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E696" s="6"/>
+      <c r="E696" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="F696" s="6"/>
       <c r="G696" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H696" s="6"/>
-      <c r="I696" s="6"/>
+      <c r="H696" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I696" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J696" s="6" t="s">
         <v>30</v>
       </c>
@@ -18247,13 +20209,19 @@
       <c r="D698" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E698" s="9"/>
+      <c r="E698" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="F698" s="9"/>
       <c r="G698" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H698" s="9"/>
-      <c r="I698" s="9"/>
+      <c r="H698" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I698" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="J698" s="10" t="s">
         <v>30</v>
       </c>
@@ -18347,13 +20315,19 @@
       <c r="D702" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E702" s="6"/>
+      <c r="E702" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F702" s="6"/>
       <c r="G702" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H702" s="6"/>
-      <c r="I702" s="6"/>
+      <c r="H702" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I702" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J702" s="11" t="s">
         <v>30</v>
       </c>

--- a/prelims/data/egg_tube_data.xlsx
+++ b/prelims/data/egg_tube_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/extreme-flight-trials/prelims/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0EF45-33B5-8549-BB2C-31723C55E7C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50FCFDD-0D21-8D4A-A39E-94665AB505C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
+    <workbookView xWindow="640" yWindow="560" windowWidth="27280" windowHeight="16620" xr2:uid="{CE040209-3C16-F54B-BD28-83BB5606938B}"/>
   </bookViews>
   <sheets>
     <sheet name="egg_tube_data3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="68">
   <si>
     <t>gen1_ID</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>9.23.11</t>
+  </si>
+  <si>
+    <t>10.14.21</t>
+  </si>
+  <si>
+    <t>10.9-10.11</t>
+  </si>
+  <si>
+    <t>10.13.21</t>
+  </si>
+  <si>
+    <t>10.11.21</t>
+  </si>
+  <si>
+    <t>10.12.21</t>
   </si>
 </sst>
 </file>
@@ -654,8 +669,8 @@
   <dimension ref="A1:L1271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E705" sqref="E705"/>
+      <pane ySplit="1" topLeftCell="A732" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H763" sqref="H763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2108,9 @@
       <c r="E49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G49" s="11" t="s">
         <v>17</v>
       </c>
@@ -10214,13 +10231,19 @@
       <c r="D336" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E336" s="6"/>
+      <c r="E336" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F336" s="6"/>
       <c r="G336" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H336" s="6"/>
-      <c r="I336" s="6"/>
+      <c r="H336" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I336" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J336" s="6" t="s">
         <v>30</v>
       </c>
@@ -11806,17 +11829,25 @@
       <c r="D392" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E392" s="6"/>
+      <c r="E392" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F392" s="6"/>
       <c r="G392" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H392" s="6"/>
-      <c r="I392" s="6"/>
+      <c r="H392" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I392" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J392" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K392" s="6"/>
+      <c r="K392" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="393" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="6">
@@ -13121,7 +13152,9 @@
       <c r="E438" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F438" s="6"/>
+      <c r="F438" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G438" s="11" t="s">
         <v>18</v>
       </c>
@@ -13303,12 +13336,18 @@
         <v>22</v>
       </c>
       <c r="E444" s="6"/>
-      <c r="F444" s="6"/>
+      <c r="F444" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G444" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H444" s="6"/>
-      <c r="I444" s="6"/>
+      <c r="H444" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I444" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J444" s="6" t="s">
         <v>30</v>
       </c>
@@ -15999,7 +16038,9 @@
         <v>24</v>
       </c>
       <c r="E543" s="6"/>
-      <c r="F543" s="6"/>
+      <c r="F543" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G543" s="11" t="s">
         <v>18</v>
       </c>
@@ -16047,7 +16088,9 @@
         <v>24</v>
       </c>
       <c r="E545" s="6"/>
-      <c r="F545" s="6"/>
+      <c r="F545" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G545" s="11" t="s">
         <v>18</v>
       </c>
@@ -16102,13 +16145,19 @@
       <c r="D547" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E547" s="6"/>
+      <c r="E547" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F547" s="6"/>
       <c r="G547" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H547" s="6"/>
-      <c r="I547" s="6"/>
+      <c r="H547" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I547" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J547" s="6" t="s">
         <v>30</v>
       </c>
@@ -17028,19 +17077,27 @@
       <c r="D579" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E579" s="6"/>
+      <c r="E579" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F579" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G579" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H579" s="6"/>
-      <c r="I579" s="6"/>
+      <c r="H579" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I579" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J579" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K579" s="6"/>
+      <c r="K579" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="580" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="6">
@@ -17592,17 +17649,25 @@
       <c r="D601" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E601" s="6"/>
+      <c r="E601" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F601" s="6"/>
       <c r="G601" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H601" s="6"/>
-      <c r="I601" s="6"/>
+      <c r="H601" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I601" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J601" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K601" s="6"/>
+      <c r="K601" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="602" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="6">
@@ -17735,17 +17800,25 @@
       <c r="D606" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E606" s="6"/>
+      <c r="E606" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F606" s="6"/>
       <c r="G606" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H606" s="6"/>
-      <c r="I606" s="6"/>
+      <c r="H606" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I606" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J606" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K606" s="6"/>
+      <c r="K606" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="607" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="6">
@@ -18095,17 +18168,25 @@
       <c r="D618" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E618" s="6"/>
+      <c r="E618" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F618" s="6"/>
       <c r="G618" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H618" s="6"/>
-      <c r="I618" s="6"/>
+      <c r="H618" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I618" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J618" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K618" s="6"/>
+      <c r="K618" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="619" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="6">
@@ -18120,17 +18201,25 @@
       <c r="D619" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E619" s="6"/>
+      <c r="E619" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F619" s="6"/>
       <c r="G619" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H619" s="6"/>
-      <c r="I619" s="6"/>
+      <c r="H619" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I619" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J619" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K619" s="6"/>
+      <c r="K619" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="620" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="6">
@@ -18172,13 +18261,19 @@
       <c r="D621" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E621" s="6"/>
+      <c r="E621" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F621" s="6"/>
       <c r="G621" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H621" s="6"/>
-      <c r="I621" s="6"/>
+      <c r="H621" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I621" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J621" s="11" t="s">
         <v>30</v>
       </c>
@@ -18220,17 +18315,25 @@
       <c r="D623" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E623" s="6"/>
+      <c r="E623" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F623" s="6"/>
       <c r="G623" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H623" s="6"/>
-      <c r="I623" s="6"/>
+      <c r="H623" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I623" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J623" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K623" s="6"/>
+      <c r="K623" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="624" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="6">
@@ -18245,13 +18348,19 @@
       <c r="D624" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E624" s="6"/>
+      <c r="E624" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F624" s="6"/>
       <c r="G624" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H624" s="6"/>
-      <c r="I624" s="6"/>
+      <c r="H624" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I624" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J624" s="11" t="s">
         <v>30</v>
       </c>
@@ -18639,17 +18748,25 @@
       <c r="D638" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E638" s="6"/>
+      <c r="E638" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F638" s="6"/>
       <c r="G638" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H638" s="6"/>
-      <c r="I638" s="6"/>
+      <c r="H638" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I638" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J638" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K638" s="6"/>
+      <c r="K638" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="639" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="6">
@@ -18664,17 +18781,25 @@
       <c r="D639" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E639" s="6"/>
+      <c r="E639" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F639" s="6"/>
       <c r="G639" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H639" s="6"/>
-      <c r="I639" s="6"/>
+      <c r="H639" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I639" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J639" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K639" s="6"/>
+      <c r="K639" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="640" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="6">
@@ -18689,13 +18814,19 @@
       <c r="D640" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E640" s="6"/>
+      <c r="E640" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F640" s="6"/>
       <c r="G640" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H640" s="6"/>
-      <c r="I640" s="6"/>
+      <c r="H640" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I640" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J640" s="6" t="s">
         <v>30</v>
       </c>
@@ -18870,13 +19001,19 @@
       <c r="D647" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E647" s="6"/>
+      <c r="E647" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F647" s="6"/>
       <c r="G647" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H647" s="6"/>
-      <c r="I647" s="6"/>
+      <c r="H647" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I647" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J647" s="6" t="s">
         <v>30</v>
       </c>
@@ -18967,7 +19104,9 @@
         <v>41</v>
       </c>
       <c r="E651" s="6"/>
-      <c r="F651" s="6"/>
+      <c r="F651" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G651" s="11" t="s">
         <v>18</v>
       </c>
@@ -19015,7 +19154,9 @@
         <v>40</v>
       </c>
       <c r="E653" s="6"/>
-      <c r="F653" s="6"/>
+      <c r="F653" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="G653" s="11" t="s">
         <v>18</v>
       </c>
@@ -19230,17 +19371,25 @@
       <c r="D661" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E661" s="6"/>
+      <c r="E661" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F661" s="6"/>
       <c r="G661" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H661" s="6"/>
-      <c r="I661" s="6"/>
+      <c r="H661" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I661" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J661" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K661" s="6"/>
+      <c r="K661" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="662" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="6">
@@ -19286,13 +19435,19 @@
       <c r="D663" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E663" s="6"/>
+      <c r="E663" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F663" s="6"/>
       <c r="G663" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H663" s="6"/>
-      <c r="I663" s="6"/>
+      <c r="H663" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I663" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J663" s="6" t="s">
         <v>30</v>
       </c>
@@ -19391,7 +19546,9 @@
         <v>40</v>
       </c>
       <c r="E667" s="6"/>
-      <c r="F667" s="6"/>
+      <c r="F667" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G667" s="11" t="s">
         <v>18</v>
       </c>
@@ -19413,15 +19570,23 @@
         <v>38</v>
       </c>
       <c r="D668" s="6"/>
-      <c r="E668" s="6"/>
+      <c r="E668" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F668" s="6"/>
       <c r="G668" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H668" s="6"/>
-      <c r="I668" s="6"/>
+      <c r="H668" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I668" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J668" s="6"/>
-      <c r="K668" s="6"/>
+      <c r="K668" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="669" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="6">
@@ -19434,15 +19599,23 @@
         <v>38</v>
       </c>
       <c r="D669" s="6"/>
-      <c r="E669" s="6"/>
+      <c r="E669" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F669" s="6"/>
       <c r="G669" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H669" s="6"/>
-      <c r="I669" s="6"/>
+      <c r="H669" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I669" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J669" s="6"/>
-      <c r="K669" s="6"/>
+      <c r="K669" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="670" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="6">
@@ -19457,17 +19630,25 @@
       <c r="D670" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E670" s="6"/>
+      <c r="E670" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F670" s="6"/>
       <c r="G670" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H670" s="6"/>
-      <c r="I670" s="6"/>
+      <c r="H670" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I670" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J670" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K670" s="6"/>
+      <c r="K670" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="671" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="6">
@@ -19588,7 +19769,9 @@
       <c r="D675" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E675" s="6"/>
+      <c r="E675" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F675" s="6"/>
       <c r="G675" s="11" t="s">
         <v>18</v>
@@ -19598,7 +19781,9 @@
       <c r="J675" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K675" s="6"/>
+      <c r="K675" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="676" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="6">
@@ -19679,13 +19864,19 @@
       <c r="D678" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E678" s="6"/>
+      <c r="E678" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F678" s="6"/>
       <c r="G678" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H678" s="6"/>
-      <c r="I678" s="6"/>
+      <c r="H678" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I678" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J678" s="6"/>
       <c r="K678" s="6"/>
     </row>
@@ -19702,15 +19893,23 @@
       <c r="D679" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E679" s="6"/>
+      <c r="E679" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F679" s="6"/>
       <c r="G679" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H679" s="6"/>
-      <c r="I679" s="6"/>
+      <c r="H679" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I679" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J679" s="6"/>
-      <c r="K679" s="6"/>
+      <c r="K679" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="680" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="6">
@@ -19779,15 +19978,23 @@
       <c r="D682" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E682" s="6"/>
+      <c r="E682" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F682" s="6"/>
       <c r="G682" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H682" s="6"/>
-      <c r="I682" s="6"/>
+      <c r="H682" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I682" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J682" s="6"/>
-      <c r="K682" s="6"/>
+      <c r="K682" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="683" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="6">
@@ -19827,15 +20034,23 @@
       <c r="D684" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E684" s="8"/>
+      <c r="E684" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F684" s="8"/>
       <c r="G684" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H684" s="8"/>
-      <c r="I684" s="8"/>
+      <c r="H684" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I684" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J684" s="8"/>
-      <c r="K684" s="8"/>
+      <c r="K684" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="685" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9">
@@ -19894,17 +20109,25 @@
       <c r="D687" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E687" s="9"/>
+      <c r="E687" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="F687" s="9"/>
       <c r="G687" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H687" s="9"/>
-      <c r="I687" s="9"/>
+      <c r="H687" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I687" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="J687" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K687" s="9"/>
+      <c r="K687" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="688" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="6">
@@ -20097,17 +20320,25 @@
       <c r="D694" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E694" s="6"/>
+      <c r="E694" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F694" s="6"/>
       <c r="G694" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H694" s="6"/>
-      <c r="I694" s="6"/>
+      <c r="H694" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I694" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J694" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K694" s="6"/>
+      <c r="K694" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="695" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="6">
@@ -20184,13 +20415,19 @@
       <c r="D697" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E697" s="8"/>
+      <c r="E697" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F697" s="8"/>
       <c r="G697" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H697" s="8"/>
-      <c r="I697" s="8"/>
+      <c r="H697" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I697" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="J697" s="8" t="s">
         <v>30</v>
       </c>
@@ -20240,13 +20477,19 @@
       <c r="D699" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E699" s="6"/>
+      <c r="E699" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F699" s="6"/>
       <c r="G699" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H699" s="6"/>
-      <c r="I699" s="6"/>
+      <c r="H699" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I699" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J699" s="11" t="s">
         <v>30</v>
       </c>
@@ -20265,13 +20508,19 @@
       <c r="D700" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E700" s="6"/>
+      <c r="E700" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F700" s="6"/>
       <c r="G700" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H700" s="6"/>
-      <c r="I700" s="6"/>
+      <c r="H700" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I700" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J700" s="11" t="s">
         <v>30</v>
       </c>
@@ -20290,13 +20539,19 @@
       <c r="D701" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E701" s="6"/>
+      <c r="E701" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F701" s="6"/>
       <c r="G701" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H701" s="6"/>
-      <c r="I701" s="6"/>
+      <c r="H701" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I701" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J701" s="11" t="s">
         <v>30</v>
       </c>
@@ -20346,13 +20601,19 @@
       <c r="D703" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E703" s="8"/>
+      <c r="E703" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="F703" s="8"/>
       <c r="G703" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H703" s="8"/>
-      <c r="I703" s="8"/>
+      <c r="H703" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I703" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="J703" s="12" t="s">
         <v>30</v>
       </c>
@@ -20755,17 +21016,25 @@
       <c r="D720" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E720" s="6"/>
+      <c r="E720" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F720" s="6"/>
       <c r="G720" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H720" s="6"/>
-      <c r="I720" s="6"/>
+      <c r="H720" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I720" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J720" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K720" s="6"/>
+      <c r="K720" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="721" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="6">
@@ -20803,17 +21072,25 @@
       <c r="D722" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E722" s="6"/>
+      <c r="E722" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F722" s="6"/>
       <c r="G722" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H722" s="6"/>
-      <c r="I722" s="6"/>
+      <c r="H722" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I722" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J722" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K722" s="6"/>
+      <c r="K722" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="723" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="6">
@@ -20829,7 +21106,9 @@
         <v>42</v>
       </c>
       <c r="E723" s="6"/>
-      <c r="F723" s="6"/>
+      <c r="F723" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G723" s="11" t="s">
         <v>18</v>
       </c>
@@ -21247,13 +21526,19 @@
       <c r="D740" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E740" s="6"/>
+      <c r="E740" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F740" s="6"/>
       <c r="G740" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H740" s="6"/>
-      <c r="I740" s="6"/>
+      <c r="H740" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I740" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J740" s="6"/>
       <c r="K740" s="6"/>
     </row>
@@ -21270,15 +21555,23 @@
       <c r="D741" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E741" s="6"/>
+      <c r="E741" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F741" s="6"/>
       <c r="G741" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H741" s="6"/>
-      <c r="I741" s="6"/>
+      <c r="H741" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I741" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J741" s="6"/>
-      <c r="K741" s="6"/>
+      <c r="K741" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="742" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="6">
@@ -21293,15 +21586,23 @@
       <c r="D742" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E742" s="6"/>
+      <c r="E742" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F742" s="6"/>
       <c r="G742" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H742" s="6"/>
-      <c r="I742" s="6"/>
+      <c r="H742" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I742" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J742" s="6"/>
-      <c r="K742" s="6"/>
+      <c r="K742" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="743" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="6">
@@ -21316,7 +21617,6 @@
       <c r="D743" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E743" s="6"/>
       <c r="F743" s="6"/>
       <c r="G743" s="11" t="s">
         <v>18</v>
@@ -21339,13 +21639,19 @@
       <c r="D744" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E744" s="6"/>
+      <c r="E744" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F744" s="6"/>
       <c r="G744" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H744" s="6"/>
-      <c r="I744" s="6"/>
+      <c r="H744" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I744" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J744" s="6"/>
       <c r="K744" s="6"/>
     </row>
@@ -21408,13 +21714,19 @@
       <c r="D747" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E747" s="6"/>
+      <c r="E747" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F747" s="6"/>
       <c r="G747" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H747" s="6"/>
-      <c r="I747" s="6"/>
+      <c r="H747" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I747" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="J747" s="6"/>
       <c r="K747" s="6"/>
     </row>
@@ -21454,13 +21766,19 @@
       <c r="D749" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E749" s="6"/>
+      <c r="E749" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="F749" s="6"/>
       <c r="G749" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H749" s="6"/>
-      <c r="I749" s="6"/>
+      <c r="H749" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I749" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J749" s="6"/>
       <c r="K749" s="6"/>
     </row>
@@ -21477,13 +21795,19 @@
       <c r="D750" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E750" s="6"/>
+      <c r="E750" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F750" s="6"/>
       <c r="G750" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H750" s="6"/>
-      <c r="I750" s="6"/>
+      <c r="H750" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I750" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J750" s="6"/>
       <c r="K750" s="6"/>
     </row>
@@ -21500,13 +21824,19 @@
       <c r="D751" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E751" s="6"/>
+      <c r="E751" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F751" s="6"/>
       <c r="G751" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H751" s="6"/>
-      <c r="I751" s="6"/>
+      <c r="H751" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I751" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J751" s="6"/>
       <c r="K751" s="6"/>
     </row>
@@ -21638,13 +21968,19 @@
       <c r="D757" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E757" s="6"/>
+      <c r="E757" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F757" s="6"/>
       <c r="G757" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H757" s="6"/>
-      <c r="I757" s="6"/>
+      <c r="H757" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I757" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J757" s="6"/>
       <c r="K757" s="6"/>
     </row>
@@ -21684,13 +22020,19 @@
       <c r="D759" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E759" s="6"/>
+      <c r="E759" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F759" s="6"/>
       <c r="G759" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H759" s="6"/>
-      <c r="I759" s="6"/>
+      <c r="H759" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I759" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J759" s="6"/>
       <c r="K759" s="6"/>
     </row>
@@ -21707,13 +22049,19 @@
       <c r="D760" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E760" s="6"/>
+      <c r="E760" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F760" s="6"/>
       <c r="G760" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H760" s="6"/>
-      <c r="I760" s="6"/>
+      <c r="H760" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I760" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J760" s="6"/>
       <c r="K760" s="6"/>
     </row>
@@ -21753,13 +22101,19 @@
       <c r="D762" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E762" s="6"/>
+      <c r="E762" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="F762" s="6"/>
       <c r="G762" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H762" s="6"/>
-      <c r="I762" s="6"/>
+      <c r="H762" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I762" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="J762" s="6"/>
       <c r="K762" s="6"/>
     </row>
